--- a/Estudio_Sensibilidades/Tablas_CasoBase.xlsx
+++ b/Estudio_Sensibilidades/Tablas_CasoBase.xlsx
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignac\Trabajo_Centra\Catedra-LDES\CII-Centra-EDF\SEN\SEN-Files\Electricity Generation\CII-CENTRA-EDF-CHILE\Estudio_Sensibilidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A22E7BA-6C73-4688-897E-DF40672FFDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEF79E7-8F05-4BFC-B0EE-7EDD41AD4072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RL" sheetId="1" r:id="rId1"/>
     <sheet name="CN" sheetId="2" r:id="rId2"/>
     <sheet name="TA" sheetId="3" r:id="rId3"/>
+    <sheet name="Escenarios" sheetId="4" r:id="rId4"/>
+    <sheet name="Costos Combustibles" sheetId="5" r:id="rId5"/>
+    <sheet name="Psuf" sheetId="6" r:id="rId6"/>
+    <sheet name="PSP sensibilidades" sheetId="7" r:id="rId7"/>
+    <sheet name="BESS Masiva sensibilidades" sheetId="13" r:id="rId8"/>
+    <sheet name="Icap 2024" sheetId="10" r:id="rId9"/>
+    <sheet name="C Construcción" sheetId="11" r:id="rId10"/>
+    <sheet name="Costos LDES" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="132">
   <si>
     <t>Solar_FV</t>
   </si>
@@ -119,13 +127,684 @@
   </si>
   <si>
     <t>Capacidad construida de BESS por periodo (GW). Escenario: Transición Acelerada</t>
+  </si>
+  <si>
+    <t>Escenarios de planificación</t>
+  </si>
+  <si>
+    <t>Tipo de variable</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Recuperación lenta</t>
+  </si>
+  <si>
+    <t>Carbono Neutralidad</t>
+  </si>
+  <si>
+    <t>Transición Acelerada</t>
+  </si>
+  <si>
+    <t>Energéticas</t>
+  </si>
+  <si>
+    <t>Económicas</t>
+  </si>
+  <si>
+    <t>Retiro de centrales a carbón</t>
+  </si>
+  <si>
+    <t>Conservadora</t>
+  </si>
+  <si>
+    <t>Hasta 10 USD/TonCO2</t>
+  </si>
+  <si>
+    <t>Bajos</t>
+  </si>
+  <si>
+    <t>Altos</t>
+  </si>
+  <si>
+    <t>Retiro total al 2040</t>
+  </si>
+  <si>
+    <t>Demanda eléctrica</t>
+  </si>
+  <si>
+    <t>Impuestos a emisiones</t>
+  </si>
+  <si>
+    <t>Costos combustibles</t>
+  </si>
+  <si>
+    <t>CAPEX renovables y almacenamientos</t>
+  </si>
+  <si>
+    <t>Retiro total al 2035</t>
+  </si>
+  <si>
+    <t>Retiro total al 2030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media alta </t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Hasta 35 USD/TonCO2</t>
+  </si>
+  <si>
+    <t>Hasta 70 USD/TonCO2</t>
+  </si>
+  <si>
+    <t>Medios</t>
+  </si>
+  <si>
+    <t>Periodo</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>Costos Carbón USD/ton</t>
+  </si>
+  <si>
+    <t>Costos GNL USD/MMBtu</t>
+  </si>
+  <si>
+    <t>Costos Diesel USD/m3</t>
+  </si>
+  <si>
+    <t>Costos Biogas USD/MMBtu</t>
+  </si>
+  <si>
+    <t>Costos Bimasa USD/ton</t>
+  </si>
+  <si>
+    <t>Costos Cogeneración USD/MMBtu</t>
+  </si>
+  <si>
+    <t>Subsistema</t>
+  </si>
+  <si>
+    <t>Tecnología</t>
+  </si>
+  <si>
+    <t>Autoproductor</t>
+  </si>
+  <si>
+    <t>Eólica</t>
+  </si>
+  <si>
+    <t>Pasada</t>
+  </si>
+  <si>
+    <t>Embalse</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Térmico</t>
+  </si>
+  <si>
+    <t>Geotermia</t>
+  </si>
+  <si>
+    <t>Almacenmamiento (1h)</t>
+  </si>
+  <si>
+    <t>Almacenmamiento (2h)</t>
+  </si>
+  <si>
+    <t>Almacenmamiento (4h)</t>
+  </si>
+  <si>
+    <t>Almacenmamiento (&gt;5h)</t>
+  </si>
+  <si>
+    <t>Norte</t>
+  </si>
+  <si>
+    <t>Sur</t>
+  </si>
+  <si>
+    <t>Ambos</t>
+  </si>
+  <si>
+    <t>Límite de reserva por tecnología</t>
+  </si>
+  <si>
+    <t>Fsuf</t>
+  </si>
+  <si>
+    <t>Capacidad instalada de almacenamiento por periodo (GW), Escenario: Recuperación Lenta</t>
+  </si>
+  <si>
+    <t>Capacidad construida de almacenamiento por periodo (GW), Escenario: CN, PSP al 2029</t>
+  </si>
+  <si>
+    <t>Capacidad instalada al 2024</t>
+  </si>
+  <si>
+    <t>Capacidad</t>
+  </si>
+  <si>
+    <t>Solar Fotovoltaica</t>
+  </si>
+  <si>
+    <t>Hidroelectrica</t>
+  </si>
+  <si>
+    <t>PSP 2031</t>
+  </si>
+  <si>
+    <t>PSP 2033</t>
+  </si>
+  <si>
+    <t>PSP 2029</t>
+  </si>
+  <si>
+    <t>Total GW</t>
+  </si>
+  <si>
+    <t>Total GWh</t>
+  </si>
+  <si>
+    <t>Cogeneración</t>
+  </si>
+  <si>
+    <t>Capacidad en construcción</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CAPEX PSP [USD/kW]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CAPEX CAES [USD/kW]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CAPEX BESS [USD/kW]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CAPEX TES [USD/kW]</t>
+  </si>
+  <si>
+    <r>
+      <t>Capacidad [MW]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Duración [h]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> 1828</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2026</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2526</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>450</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1790</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1988</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2487</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1776</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1974</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2468</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>250</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1178,74</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1205,18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1230,82</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> 2249,65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2573,88</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2835,88</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1- 1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> 387,78</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>585,86</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>980,74</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <t>Caso Base</t>
+  </si>
+  <si>
+    <t>BESS Alto</t>
+  </si>
+  <si>
+    <t>BESS Alto+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +826,63 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -175,7 +911,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -279,11 +1015,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -291,9 +1078,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -301,12 +1085,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -315,10 +1099,113 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,6 +1218,138 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="Imagen 325632066, Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{332C4EFB-8288-BD83-7BA7-A5AEE65E545A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="838200" y="2097480"/>
+          <a:ext cx="8077200" cy="2253539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="Imagen 1, Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08D57269-3BC8-607D-8245-ADAFB53FD299}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="792480" y="365760"/>
+          <a:ext cx="4107180" cy="3924300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -598,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AF28"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView topLeftCell="N10" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14:Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,103 +1631,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="14"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="14"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>2024</v>
       </c>
       <c r="C4" s="1">
@@ -756,22 +1773,11 @@
       <c r="Q4" s="1">
         <v>0</v>
       </c>
-      <c r="T4" s="14"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
+      <c r="T4" s="12"/>
+      <c r="AA4" s="12"/>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>2026</v>
       </c>
       <c r="C5" s="2">
@@ -819,22 +1825,11 @@
       <c r="Q5" s="2">
         <v>0</v>
       </c>
-      <c r="T5" s="14"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
+      <c r="T5" s="12"/>
+      <c r="AA5" s="12"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>2029</v>
       </c>
       <c r="C6" s="2">
@@ -882,22 +1877,11 @@
       <c r="Q6" s="2">
         <v>0</v>
       </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
+      <c r="T6" s="12"/>
+      <c r="AA6" s="12"/>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>2030</v>
       </c>
       <c r="C7" s="2">
@@ -945,22 +1929,11 @@
       <c r="Q7" s="2">
         <v>0</v>
       </c>
-      <c r="T7" s="14"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
+      <c r="T7" s="12"/>
+      <c r="AA7" s="12"/>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>2031</v>
       </c>
       <c r="C8" s="2">
@@ -1008,22 +1981,11 @@
       <c r="Q8" s="2">
         <v>0</v>
       </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
+      <c r="T8" s="12"/>
+      <c r="AA8" s="12"/>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>2033</v>
       </c>
       <c r="C9" s="2">
@@ -1071,22 +2033,11 @@
       <c r="Q9" s="2">
         <v>0</v>
       </c>
-      <c r="T9" s="14"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
+      <c r="T9" s="12"/>
+      <c r="AA9" s="12"/>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>2040</v>
       </c>
       <c r="C10" s="2">
@@ -1134,22 +2085,11 @@
       <c r="Q10" s="2">
         <v>0</v>
       </c>
-      <c r="T10" s="14"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
+      <c r="T10" s="12"/>
+      <c r="AA10" s="12"/>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>2050</v>
       </c>
       <c r="C11" s="3">
@@ -1197,99 +2137,88 @@
       <c r="Q11" s="3">
         <v>0.11</v>
       </c>
-      <c r="T11" s="14"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
+      <c r="T11" s="12"/>
+      <c r="AA11" s="12"/>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="T14" s="7" t="s">
+      <c r="T14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="7" t="s">
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="T15" s="17" t="s">
+      <c r="T15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="U15" s="7" t="s">
+      <c r="U15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="17" t="s">
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="17" t="s">
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AB15" s="7" t="s">
+      <c r="AB15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="17" t="s">
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="T16" s="18"/>
-      <c r="U16" s="16">
+      <c r="T16" s="17"/>
+      <c r="U16" s="13">
         <v>8</v>
       </c>
-      <c r="V16" s="16">
+      <c r="V16" s="13">
         <v>10</v>
       </c>
-      <c r="W16" s="16">
+      <c r="W16" s="13">
         <v>14</v>
       </c>
-      <c r="X16" s="16">
+      <c r="X16" s="13">
         <v>24</v>
       </c>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="16">
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="13">
         <v>1</v>
       </c>
-      <c r="AC16" s="16">
+      <c r="AC16" s="13">
         <v>2</v>
       </c>
-      <c r="AD16" s="16">
+      <c r="AD16" s="13">
         <v>4</v>
       </c>
-      <c r="AE16" s="16">
+      <c r="AE16" s="13">
         <v>6</v>
       </c>
-      <c r="AF16" s="18"/>
+      <c r="AF16" s="17"/>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="T17" s="11">
+      <c r="T17" s="10">
         <v>2024</v>
       </c>
       <c r="U17" s="1">
@@ -1308,8 +2237,8 @@
         <f>SUM(U17:X17)</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="11">
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="10">
         <v>2024</v>
       </c>
       <c r="AB17" s="1">
@@ -1330,7 +2259,7 @@
       </c>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="T18" s="12">
+      <c r="T18" s="11">
         <v>2026</v>
       </c>
       <c r="U18" s="2">
@@ -1349,8 +2278,8 @@
         <f t="shared" ref="Y18:Y24" si="0">SUM(U18:X18)</f>
         <v>0</v>
       </c>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="12">
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="11">
         <v>2026</v>
       </c>
       <c r="AB18" s="2">
@@ -1371,13 +2300,13 @@
       </c>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="T19" s="12">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="T19" s="11">
         <v>2029</v>
       </c>
       <c r="U19" s="2">
@@ -1396,8 +2325,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="12">
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="11">
         <v>2029</v>
       </c>
       <c r="AB19" s="2">
@@ -1418,13 +2347,13 @@
       </c>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B20" s="14"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="T20" s="12">
+      <c r="B20" s="12"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="12"/>
+      <c r="T20" s="11">
         <v>2030</v>
       </c>
       <c r="U20" s="2">
@@ -1443,8 +2372,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="12">
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="11">
         <v>2030</v>
       </c>
       <c r="AB20" s="2">
@@ -1465,13 +2394,8 @@
       </c>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="T21" s="12">
+      <c r="B21" s="12"/>
+      <c r="T21" s="11">
         <v>2031</v>
       </c>
       <c r="U21" s="2">
@@ -1490,8 +2414,8 @@
         <f t="shared" si="0"/>
         <v>0.94000000000000006</v>
       </c>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="12">
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="11">
         <v>2031</v>
       </c>
       <c r="AB21" s="2">
@@ -1512,13 +2436,8 @@
       </c>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="T22" s="12">
+      <c r="B22" s="12"/>
+      <c r="T22" s="11">
         <v>2033</v>
       </c>
       <c r="U22" s="2">
@@ -1537,8 +2456,8 @@
         <f t="shared" si="0"/>
         <v>0.42</v>
       </c>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="12">
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="11">
         <v>2033</v>
       </c>
       <c r="AB22" s="2">
@@ -1559,13 +2478,8 @@
       </c>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="T23" s="12">
+      <c r="B23" s="12"/>
+      <c r="T23" s="11">
         <v>2040</v>
       </c>
       <c r="U23" s="2">
@@ -1584,8 +2498,8 @@
         <f t="shared" si="0"/>
         <v>0.59</v>
       </c>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="12">
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="11">
         <v>2040</v>
       </c>
       <c r="AB23" s="2">
@@ -1606,13 +2520,8 @@
       </c>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="T24" s="12">
+      <c r="B24" s="12"/>
+      <c r="T24" s="11">
         <v>2050</v>
       </c>
       <c r="U24" s="3">
@@ -1631,8 +2540,8 @@
         <f t="shared" si="0"/>
         <v>2.41</v>
       </c>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="12">
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="11">
         <v>2050</v>
       </c>
       <c r="AB24" s="3">
@@ -1653,60 +2562,589 @@
       </c>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="27" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="B27" s="12"/>
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
+      <c r="B28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="AA14:AF14"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="U3:X3"/>
     <mergeCell ref="AB15:AE15"/>
     <mergeCell ref="T15:T16"/>
     <mergeCell ref="Y15:Y16"/>
     <mergeCell ref="AA15:AA16"/>
     <mergeCell ref="AF15:AF16"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="AA14:AF14"/>
-    <mergeCell ref="U15:X15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="Y17:Y24 AF17:AF24" formulaRange="1"/>
   </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485A5195-671C-4717-80D9-4508D5D4E35C}">
+  <dimension ref="C5:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="47">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="47">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="47">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="47">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="47">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="47">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="47">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="48">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C34864-7081-4F84-BA76-E1C219CA2472}">
+  <dimension ref="C5:K27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="H5" s="49"/>
+    </row>
+    <row r="6" spans="3:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+    </row>
+    <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+    </row>
+    <row r="8" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+    </row>
+    <row r="9" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+    </row>
+    <row r="10" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="53"/>
+      <c r="D10" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+    </row>
+    <row r="12" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" s="51" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="55"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+    </row>
+    <row r="14" spans="3:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="55"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C16" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17" s="55"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+    </row>
+    <row r="19" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+    </row>
+    <row r="20" spans="3:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+    </row>
+    <row r="21" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+    </row>
+    <row r="22" spans="3:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+    </row>
+    <row r="23" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+    </row>
+    <row r="24" spans="3:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="53"/>
+      <c r="D24" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="J24" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+    </row>
+    <row r="26" spans="3:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="55"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G6:G27"/>
+    <mergeCell ref="H14:K19"/>
+    <mergeCell ref="C18:F19"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="I22:K23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H6:K7"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:K9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="C20:F21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:F23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:F9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1727,89 +3165,89 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="14"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="14"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="12"/>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>2024</v>
       </c>
       <c r="C4" s="1">
@@ -1857,15 +3295,10 @@
       <c r="Q4" s="1">
         <v>0</v>
       </c>
-      <c r="T4" s="14"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
+      <c r="T4" s="12"/>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>2026</v>
       </c>
       <c r="C5" s="2">
@@ -1913,15 +3346,10 @@
       <c r="Q5" s="2">
         <v>0</v>
       </c>
-      <c r="T5" s="14"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
+      <c r="T5" s="12"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>2029</v>
       </c>
       <c r="C6" s="2">
@@ -1969,15 +3397,10 @@
       <c r="Q6" s="2">
         <v>0</v>
       </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
+      <c r="T6" s="12"/>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>2030</v>
       </c>
       <c r="C7" s="2">
@@ -2025,15 +3448,10 @@
       <c r="Q7" s="2">
         <v>0</v>
       </c>
-      <c r="T7" s="14"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
+      <c r="T7" s="12"/>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>2031</v>
       </c>
       <c r="C8" s="2">
@@ -2081,15 +3499,10 @@
       <c r="Q8" s="2">
         <v>0</v>
       </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
+      <c r="T8" s="12"/>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>2033</v>
       </c>
       <c r="C9" s="2">
@@ -2137,15 +3550,10 @@
       <c r="Q9" s="2">
         <v>0</v>
       </c>
-      <c r="T9" s="14"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
+      <c r="T9" s="12"/>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>2040</v>
       </c>
       <c r="C10" s="2">
@@ -2193,15 +3601,10 @@
       <c r="Q10" s="2">
         <v>0</v>
       </c>
-      <c r="T10" s="14"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
+      <c r="T10" s="12"/>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>2050</v>
       </c>
       <c r="C11" s="3">
@@ -2249,95 +3652,90 @@
       <c r="Q11" s="3">
         <v>0.52</v>
       </c>
-      <c r="T11" s="14"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
+      <c r="T11" s="12"/>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="Z13" s="19"/>
+      <c r="Z13" s="14"/>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="T14" s="7" t="s">
+      <c r="T14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="7" t="s">
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="T15" s="17" t="s">
+      <c r="T15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="U15" s="7" t="s">
+      <c r="U15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="17" t="s">
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="17" t="s">
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AB15" s="7" t="s">
+      <c r="AB15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="17" t="s">
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="T16" s="18"/>
-      <c r="U16" s="16">
+      <c r="T16" s="17"/>
+      <c r="U16" s="13">
         <v>8</v>
       </c>
-      <c r="V16" s="16">
+      <c r="V16" s="13">
         <v>10</v>
       </c>
-      <c r="W16" s="16">
+      <c r="W16" s="13">
         <v>14</v>
       </c>
-      <c r="X16" s="16">
+      <c r="X16" s="13">
         <v>24</v>
       </c>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="16">
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="13">
         <v>1</v>
       </c>
-      <c r="AC16" s="16">
+      <c r="AC16" s="13">
         <v>2</v>
       </c>
-      <c r="AD16" s="16">
+      <c r="AD16" s="13">
         <v>4</v>
       </c>
-      <c r="AE16" s="16">
+      <c r="AE16" s="13">
         <v>6</v>
       </c>
-      <c r="AF16" s="18"/>
+      <c r="AF16" s="17"/>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="T17" s="11">
+      <c r="T17" s="10">
         <v>2024</v>
       </c>
       <c r="U17" s="1">
@@ -2356,8 +3754,8 @@
         <f>SUM(U17:X17)</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="11">
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="10">
         <v>2024</v>
       </c>
       <c r="AB17" s="1">
@@ -2378,13 +3776,13 @@
       </c>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="T18" s="12">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="T18" s="11">
         <v>2026</v>
       </c>
       <c r="U18" s="2">
@@ -2403,8 +3801,8 @@
         <f t="shared" ref="Y18:Y24" si="0">SUM(U18:X18)</f>
         <v>0</v>
       </c>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="12">
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="11">
         <v>2026</v>
       </c>
       <c r="AB18" s="2">
@@ -2425,13 +3823,13 @@
       </c>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B19" s="14"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="T19" s="12">
+      <c r="B19" s="12"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="12"/>
+      <c r="T19" s="11">
         <v>2029</v>
       </c>
       <c r="U19" s="2">
@@ -2450,8 +3848,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="12">
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="11">
         <v>2029</v>
       </c>
       <c r="AB19" s="2">
@@ -2472,13 +3870,8 @@
       </c>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="T20" s="12">
+      <c r="B20" s="12"/>
+      <c r="T20" s="11">
         <v>2030</v>
       </c>
       <c r="U20" s="2">
@@ -2497,8 +3890,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="12">
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="11">
         <v>2030</v>
       </c>
       <c r="AB20" s="2">
@@ -2519,13 +3912,8 @@
       </c>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="T21" s="12">
+      <c r="B21" s="12"/>
+      <c r="T21" s="11">
         <v>2031</v>
       </c>
       <c r="U21" s="2">
@@ -2544,8 +3932,8 @@
         <f t="shared" si="0"/>
         <v>1.42</v>
       </c>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="12">
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="11">
         <v>2031</v>
       </c>
       <c r="AB21" s="2">
@@ -2566,13 +3954,8 @@
       </c>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="T22" s="12">
+      <c r="B22" s="12"/>
+      <c r="T22" s="11">
         <v>2033</v>
       </c>
       <c r="U22" s="2">
@@ -2591,8 +3974,8 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="12">
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="11">
         <v>2033</v>
       </c>
       <c r="AB22" s="2">
@@ -2613,13 +3996,8 @@
       </c>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="T23" s="12">
+      <c r="B23" s="12"/>
+      <c r="T23" s="11">
         <v>2040</v>
       </c>
       <c r="U23" s="2">
@@ -2638,8 +4016,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="12">
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="11">
         <v>2040</v>
       </c>
       <c r="AB23" s="2">
@@ -2660,13 +4038,8 @@
       </c>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="T24" s="12">
+      <c r="B24" s="12"/>
+      <c r="T24" s="11">
         <v>2050</v>
       </c>
       <c r="U24" s="3">
@@ -2685,8 +4058,8 @@
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="12">
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="11">
         <v>2050</v>
       </c>
       <c r="AB24" s="3">
@@ -2707,38 +4080,17 @@
       </c>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="Z25" s="19"/>
+      <c r="B25" s="12"/>
+      <c r="Z25" s="14"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="27" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="B27" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AA14:AF14"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AF15:AF16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="Y15:Y16"/>
     <mergeCell ref="B2:Q2"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="C19:F19"/>
@@ -2746,6 +4098,12 @@
     <mergeCell ref="U3:X3"/>
     <mergeCell ref="T14:Y14"/>
     <mergeCell ref="U15:X15"/>
+    <mergeCell ref="AA14:AF14"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AF15:AF16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="Y15:Y16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2758,7 +4116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3EFA4E-4C33-487A-A89B-0BABC8B3963F}">
   <dimension ref="B2:AF27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O6" workbookViewId="0">
+    <sheetView topLeftCell="O6" workbookViewId="0">
       <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
@@ -2769,89 +4127,89 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="14"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="14"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="12"/>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>2024</v>
       </c>
       <c r="C4" s="1">
@@ -2899,15 +4257,10 @@
       <c r="Q4" s="1">
         <v>0</v>
       </c>
-      <c r="T4" s="14"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
+      <c r="T4" s="12"/>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>2026</v>
       </c>
       <c r="C5" s="2">
@@ -2955,15 +4308,10 @@
       <c r="Q5" s="2">
         <v>0</v>
       </c>
-      <c r="T5" s="14"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
+      <c r="T5" s="12"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>2029</v>
       </c>
       <c r="C6" s="2">
@@ -3011,15 +4359,10 @@
       <c r="Q6" s="2">
         <v>0</v>
       </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
+      <c r="T6" s="12"/>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>2030</v>
       </c>
       <c r="C7" s="2">
@@ -3067,15 +4410,10 @@
       <c r="Q7" s="2">
         <v>0</v>
       </c>
-      <c r="T7" s="14"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
+      <c r="T7" s="12"/>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>2031</v>
       </c>
       <c r="C8" s="2">
@@ -3123,15 +4461,10 @@
       <c r="Q8" s="2">
         <v>0</v>
       </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
+      <c r="T8" s="12"/>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>2033</v>
       </c>
       <c r="C9" s="2">
@@ -3179,15 +4512,10 @@
       <c r="Q9" s="2">
         <v>0</v>
       </c>
-      <c r="T9" s="14"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
+      <c r="T9" s="12"/>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>2040</v>
       </c>
       <c r="C10" s="2">
@@ -3235,15 +4563,10 @@
       <c r="Q10" s="2">
         <v>0</v>
       </c>
-      <c r="T10" s="14"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
+      <c r="T10" s="12"/>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>2050</v>
       </c>
       <c r="C11" s="3">
@@ -3291,95 +4614,90 @@
       <c r="Q11" s="3">
         <v>0.63</v>
       </c>
-      <c r="T11" s="14"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
+      <c r="T11" s="12"/>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="Z13" s="19"/>
+      <c r="Z13" s="14"/>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="T14" s="7" t="s">
+      <c r="T14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="7" t="s">
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="T15" s="17" t="s">
+      <c r="T15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="U15" s="7" t="s">
+      <c r="U15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="17" t="s">
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="17" t="s">
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AB15" s="7" t="s">
+      <c r="AB15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="17" t="s">
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="T16" s="18"/>
-      <c r="U16" s="16">
+      <c r="T16" s="17"/>
+      <c r="U16" s="13">
         <v>8</v>
       </c>
-      <c r="V16" s="16">
+      <c r="V16" s="13">
         <v>10</v>
       </c>
-      <c r="W16" s="16">
+      <c r="W16" s="13">
         <v>14</v>
       </c>
-      <c r="X16" s="16">
+      <c r="X16" s="13">
         <v>24</v>
       </c>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="16">
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="13">
         <v>1</v>
       </c>
-      <c r="AC16" s="16">
+      <c r="AC16" s="13">
         <v>2</v>
       </c>
-      <c r="AD16" s="16">
+      <c r="AD16" s="13">
         <v>4</v>
       </c>
-      <c r="AE16" s="16">
+      <c r="AE16" s="13">
         <v>6</v>
       </c>
-      <c r="AF16" s="18"/>
+      <c r="AF16" s="17"/>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="T17" s="11">
+      <c r="T17" s="10">
         <v>2024</v>
       </c>
       <c r="U17" s="1">
@@ -3398,8 +4716,8 @@
         <f>SUM(U17:X17)</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="11">
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="10">
         <v>2024</v>
       </c>
       <c r="AB17" s="1">
@@ -3420,13 +4738,13 @@
       </c>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="T18" s="12">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="T18" s="11">
         <v>2026</v>
       </c>
       <c r="U18" s="2">
@@ -3445,8 +4763,8 @@
         <f t="shared" ref="Y18:Y24" si="0">SUM(U18:X18)</f>
         <v>0</v>
       </c>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="12">
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="11">
         <v>2026</v>
       </c>
       <c r="AB18" s="2">
@@ -3467,13 +4785,13 @@
       </c>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B19" s="14"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="T19" s="12">
+      <c r="B19" s="12"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="12"/>
+      <c r="T19" s="11">
         <v>2029</v>
       </c>
       <c r="U19" s="2">
@@ -3492,8 +4810,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="12">
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="11">
         <v>2029</v>
       </c>
       <c r="AB19" s="2">
@@ -3514,13 +4832,8 @@
       </c>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="T20" s="12">
+      <c r="B20" s="12"/>
+      <c r="T20" s="11">
         <v>2030</v>
       </c>
       <c r="U20" s="2">
@@ -3539,8 +4852,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="12">
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="11">
         <v>2030</v>
       </c>
       <c r="AB20" s="2">
@@ -3561,13 +4874,8 @@
       </c>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="T21" s="12">
+      <c r="B21" s="12"/>
+      <c r="T21" s="11">
         <v>2031</v>
       </c>
       <c r="U21" s="2">
@@ -3586,8 +4894,8 @@
         <f t="shared" si="0"/>
         <v>1.46</v>
       </c>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="12">
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="11">
         <v>2031</v>
       </c>
       <c r="AB21" s="2">
@@ -3608,13 +4916,8 @@
       </c>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="T22" s="12">
+      <c r="B22" s="12"/>
+      <c r="T22" s="11">
         <v>2033</v>
       </c>
       <c r="U22" s="2">
@@ -3633,8 +4936,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="12">
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="11">
         <v>2033</v>
       </c>
       <c r="AB22" s="2">
@@ -3655,13 +4958,8 @@
       </c>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="T23" s="12">
+      <c r="B23" s="12"/>
+      <c r="T23" s="11">
         <v>2040</v>
       </c>
       <c r="U23" s="2">
@@ -3680,8 +4978,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="12">
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="11">
         <v>2040</v>
       </c>
       <c r="AB23" s="2">
@@ -3702,13 +5000,8 @@
       </c>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="T24" s="12">
+      <c r="B24" s="12"/>
+      <c r="T24" s="11">
         <v>2050</v>
       </c>
       <c r="U24" s="3">
@@ -3727,8 +5020,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="12">
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="11">
         <v>2050</v>
       </c>
       <c r="AB24" s="3">
@@ -3749,38 +5042,17 @@
       </c>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="Z25" s="19"/>
+      <c r="B25" s="12"/>
+      <c r="Z25" s="14"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="27" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="B27" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AA14:AF14"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AF15:AF16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="Y15:Y16"/>
     <mergeCell ref="B2:Q2"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="C19:F19"/>
@@ -3788,10 +5060,3005 @@
     <mergeCell ref="U3:X3"/>
     <mergeCell ref="T14:Y14"/>
     <mergeCell ref="U15:X15"/>
+    <mergeCell ref="AA14:AF14"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AF15:AF16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="Y15:Y16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="Y17:Y24 AF17:AF24" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD02785-F2BB-4257-A468-697BDE925513}">
+  <dimension ref="B3:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="27"/>
+      <c r="C6" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="27"/>
+      <c r="C8" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B9"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D708813-2F24-4E08-B476-1F13C3C86C73}">
+  <dimension ref="B1:O36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="21"/>
+      <c r="C3" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="33"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="31">
+        <v>2024</v>
+      </c>
+      <c r="C4" s="1">
+        <v>518.32000000000005</v>
+      </c>
+      <c r="D4" s="1">
+        <v>402.52</v>
+      </c>
+      <c r="E4" s="1">
+        <v>266.23</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="31">
+        <v>2024</v>
+      </c>
+      <c r="H4" s="1">
+        <v>146.85</v>
+      </c>
+      <c r="I4" s="1">
+        <v>117.75</v>
+      </c>
+      <c r="J4" s="1">
+        <v>83.62</v>
+      </c>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="31">
+        <v>2026</v>
+      </c>
+      <c r="C5" s="2">
+        <v>564.46</v>
+      </c>
+      <c r="D5" s="2">
+        <v>430.74</v>
+      </c>
+      <c r="E5" s="2">
+        <v>282.99</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="31">
+        <v>2026</v>
+      </c>
+      <c r="H5" s="2">
+        <v>158.78</v>
+      </c>
+      <c r="I5" s="2">
+        <v>124.99</v>
+      </c>
+      <c r="J5" s="2">
+        <v>87.76</v>
+      </c>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="31">
+        <v>2029</v>
+      </c>
+      <c r="C6" s="2">
+        <v>623.11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>460.33</v>
+      </c>
+      <c r="E6" s="2">
+        <v>295.49</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="31">
+        <v>2029</v>
+      </c>
+      <c r="H6" s="2">
+        <v>173.85</v>
+      </c>
+      <c r="I6" s="2">
+        <v>132.78</v>
+      </c>
+      <c r="J6" s="2">
+        <v>91.21</v>
+      </c>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="31">
+        <v>2030</v>
+      </c>
+      <c r="C7" s="2">
+        <v>639.55999999999995</v>
+      </c>
+      <c r="D7" s="2">
+        <v>468.95</v>
+      </c>
+      <c r="E7" s="2">
+        <v>302.12</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="31">
+        <v>2030</v>
+      </c>
+      <c r="H7" s="2">
+        <v>178</v>
+      </c>
+      <c r="I7" s="2">
+        <v>134.99</v>
+      </c>
+      <c r="J7" s="2">
+        <v>92.9</v>
+      </c>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="31">
+        <v>2031</v>
+      </c>
+      <c r="C8" s="2">
+        <v>651.88</v>
+      </c>
+      <c r="D8" s="2">
+        <v>475.4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>307.08</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="31">
+        <v>2031</v>
+      </c>
+      <c r="H8" s="2">
+        <v>181.09</v>
+      </c>
+      <c r="I8" s="2">
+        <v>136.6</v>
+      </c>
+      <c r="J8" s="2">
+        <v>94.11</v>
+      </c>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="31">
+        <v>2033</v>
+      </c>
+      <c r="C9" s="2">
+        <v>677.12</v>
+      </c>
+      <c r="D9" s="2">
+        <v>490.05</v>
+      </c>
+      <c r="E9" s="2">
+        <v>317.25</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="31">
+        <v>2033</v>
+      </c>
+      <c r="H9" s="2">
+        <v>187.59</v>
+      </c>
+      <c r="I9" s="2">
+        <v>140.41</v>
+      </c>
+      <c r="J9" s="2">
+        <v>96.74</v>
+      </c>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="31">
+        <v>2040</v>
+      </c>
+      <c r="C10" s="2">
+        <v>750.97</v>
+      </c>
+      <c r="D10" s="2">
+        <v>534.1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>347</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="31">
+        <v>2040</v>
+      </c>
+      <c r="H10" s="2">
+        <v>206.04</v>
+      </c>
+      <c r="I10" s="2">
+        <v>151.33000000000001</v>
+      </c>
+      <c r="J10" s="2">
+        <v>103.93</v>
+      </c>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="31">
+        <v>2050</v>
+      </c>
+      <c r="C11" s="3">
+        <v>815.57</v>
+      </c>
+      <c r="D11" s="3">
+        <v>587.13</v>
+      </c>
+      <c r="E11" s="3">
+        <v>368.16</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="31">
+        <v>2050</v>
+      </c>
+      <c r="H11" s="3">
+        <v>222.54</v>
+      </c>
+      <c r="I11" s="3">
+        <v>164.59</v>
+      </c>
+      <c r="J11" s="3">
+        <v>108.96</v>
+      </c>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F12" s="34"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F13" s="34"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="21"/>
+      <c r="C15" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="33"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="31">
+        <v>2024</v>
+      </c>
+      <c r="C16" s="1">
+        <v>293.58</v>
+      </c>
+      <c r="D16" s="1">
+        <v>245.58</v>
+      </c>
+      <c r="E16" s="1">
+        <v>190.04</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="31">
+        <v>2024</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1105.94</v>
+      </c>
+      <c r="I16" s="1">
+        <v>863.29</v>
+      </c>
+      <c r="J16" s="1">
+        <v>577.91</v>
+      </c>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="31">
+        <v>2026</v>
+      </c>
+      <c r="C17" s="2">
+        <v>315.32</v>
+      </c>
+      <c r="D17" s="2">
+        <v>258.44</v>
+      </c>
+      <c r="E17" s="2">
+        <v>196.39</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="31">
+        <v>2026</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1203.8599999999999</v>
+      </c>
+      <c r="I17" s="2">
+        <v>923.38</v>
+      </c>
+      <c r="J17" s="2">
+        <v>613.63</v>
+      </c>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="31">
+        <v>2029</v>
+      </c>
+      <c r="C18" s="2">
+        <v>342.21</v>
+      </c>
+      <c r="D18" s="2">
+        <v>273.47000000000003</v>
+      </c>
+      <c r="E18" s="2">
+        <v>203.97</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="31">
+        <v>2029</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1327.62</v>
+      </c>
+      <c r="I18" s="2">
+        <v>986.29</v>
+      </c>
+      <c r="J18" s="2">
+        <v>640.67999999999995</v>
+      </c>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="31">
+        <v>2030</v>
+      </c>
+      <c r="C19" s="2">
+        <v>349.16</v>
+      </c>
+      <c r="D19" s="2">
+        <v>277.36</v>
+      </c>
+      <c r="E19" s="2">
+        <v>206.95</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="31">
+        <v>2030</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1362.3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1004.6</v>
+      </c>
+      <c r="J19" s="2">
+        <v>654.79</v>
+      </c>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="31">
+        <v>2031</v>
+      </c>
+      <c r="C20" s="2">
+        <v>354.17</v>
+      </c>
+      <c r="D20" s="2">
+        <v>279.93</v>
+      </c>
+      <c r="E20" s="2">
+        <v>208.7</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="31">
+        <v>2031</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1388.18</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1018.19</v>
+      </c>
+      <c r="J20" s="2">
+        <v>665.22</v>
+      </c>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="31">
+        <v>2033</v>
+      </c>
+      <c r="C21" s="2">
+        <v>365.88</v>
+      </c>
+      <c r="D21" s="2">
+        <v>287.07</v>
+      </c>
+      <c r="E21" s="2">
+        <v>213.5</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="31">
+        <v>2033</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1441.53</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1049.31</v>
+      </c>
+      <c r="J21" s="2">
+        <v>686.86</v>
+      </c>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="31">
+        <v>2040</v>
+      </c>
+      <c r="C22" s="2">
+        <v>395.63</v>
+      </c>
+      <c r="D22" s="2">
+        <v>304.12</v>
+      </c>
+      <c r="E22" s="2">
+        <v>223.56</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="31">
+        <v>2040</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1596.75</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1142.01</v>
+      </c>
+      <c r="J22" s="2">
+        <v>749.41</v>
+      </c>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="31">
+        <v>2050</v>
+      </c>
+      <c r="C23" s="3">
+        <v>424.54</v>
+      </c>
+      <c r="D23" s="3">
+        <v>325.58999999999997</v>
+      </c>
+      <c r="E23" s="3">
+        <v>230.13</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="31">
+        <v>2050</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1733.29</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1253.83</v>
+      </c>
+      <c r="J23" s="3">
+        <v>794.1</v>
+      </c>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F24" s="34"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="21"/>
+      <c r="C26" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="31">
+        <v>2024</v>
+      </c>
+      <c r="C27" s="1">
+        <v>88.49</v>
+      </c>
+      <c r="D27" s="1">
+        <v>76.7</v>
+      </c>
+      <c r="E27" s="1">
+        <v>76.7</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="31">
+        <v>2024</v>
+      </c>
+      <c r="H27" s="1">
+        <v>357.47</v>
+      </c>
+      <c r="I27" s="1">
+        <v>327.69</v>
+      </c>
+      <c r="J27" s="1">
+        <v>295.52999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="31">
+        <v>2026</v>
+      </c>
+      <c r="C28" s="2">
+        <v>88.27</v>
+      </c>
+      <c r="D28" s="2">
+        <v>75.77</v>
+      </c>
+      <c r="E28" s="2">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="F28" s="34"/>
+      <c r="G28" s="31">
+        <v>2026</v>
+      </c>
+      <c r="H28" s="2">
+        <v>377.33</v>
+      </c>
+      <c r="I28" s="2">
+        <v>338.48</v>
+      </c>
+      <c r="J28" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="31">
+        <v>2029</v>
+      </c>
+      <c r="C29" s="2">
+        <v>87.71</v>
+      </c>
+      <c r="D29" s="2">
+        <v>74.34</v>
+      </c>
+      <c r="E29" s="2">
+        <v>72.5</v>
+      </c>
+      <c r="F29" s="34"/>
+      <c r="G29" s="31">
+        <v>2029</v>
+      </c>
+      <c r="H29" s="2">
+        <v>400.29</v>
+      </c>
+      <c r="I29" s="2">
+        <v>354.53</v>
+      </c>
+      <c r="J29" s="2">
+        <v>308.52999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="31">
+        <v>2030</v>
+      </c>
+      <c r="C30" s="2">
+        <v>87.41</v>
+      </c>
+      <c r="D30" s="2">
+        <v>73.88</v>
+      </c>
+      <c r="E30" s="2">
+        <v>72.69</v>
+      </c>
+      <c r="F30" s="34"/>
+      <c r="G30" s="31">
+        <v>2030</v>
+      </c>
+      <c r="H30" s="2">
+        <v>404.92</v>
+      </c>
+      <c r="I30" s="2">
+        <v>357.72</v>
+      </c>
+      <c r="J30" s="2">
+        <v>310.95999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="31">
+        <v>2031</v>
+      </c>
+      <c r="C31" s="2">
+        <v>88.07</v>
+      </c>
+      <c r="D31" s="2">
+        <v>74.44</v>
+      </c>
+      <c r="E31" s="2">
+        <v>73.3</v>
+      </c>
+      <c r="F31" s="34"/>
+      <c r="G31" s="31">
+        <v>2031</v>
+      </c>
+      <c r="H31" s="2">
+        <v>407.8</v>
+      </c>
+      <c r="I31" s="2">
+        <v>359.07</v>
+      </c>
+      <c r="J31" s="2">
+        <v>311.29000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="31">
+        <v>2033</v>
+      </c>
+      <c r="C32" s="2">
+        <v>88.11</v>
+      </c>
+      <c r="D32" s="2">
+        <v>74.47</v>
+      </c>
+      <c r="E32" s="2">
+        <v>73.37</v>
+      </c>
+      <c r="F32" s="34"/>
+      <c r="G32" s="31">
+        <v>2033</v>
+      </c>
+      <c r="H32" s="2">
+        <v>418.09</v>
+      </c>
+      <c r="I32" s="2">
+        <v>366.07</v>
+      </c>
+      <c r="J32" s="2">
+        <v>315.7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="31">
+        <v>2040</v>
+      </c>
+      <c r="C33" s="2">
+        <v>92.71</v>
+      </c>
+      <c r="D33" s="2">
+        <v>78.36</v>
+      </c>
+      <c r="E33" s="2">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="F33" s="34"/>
+      <c r="G33" s="31">
+        <v>2040</v>
+      </c>
+      <c r="H33" s="2">
+        <v>434.47</v>
+      </c>
+      <c r="I33" s="2">
+        <v>373.73</v>
+      </c>
+      <c r="J33" s="2">
+        <v>316.43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="31">
+        <v>2050</v>
+      </c>
+      <c r="C34" s="3">
+        <v>97.98</v>
+      </c>
+      <c r="D34" s="3">
+        <v>82.82</v>
+      </c>
+      <c r="E34" s="3">
+        <v>80</v>
+      </c>
+      <c r="F34" s="34"/>
+      <c r="G34" s="31">
+        <v>2050</v>
+      </c>
+      <c r="H34" s="3">
+        <v>457.61</v>
+      </c>
+      <c r="I34" s="3">
+        <v>385.83</v>
+      </c>
+      <c r="J34" s="3">
+        <v>315.14999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F35" s="34"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F36" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="F1:F35"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:J14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6ABD67-55DF-43F5-AB9E-6ED281711243}">
+  <dimension ref="B2:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="19"/>
+      <c r="I3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I4" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="37">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I5" s="27"/>
+      <c r="J5" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="37">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I6" s="27"/>
+      <c r="J6" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="37">
+        <v>0.66600000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I7" s="27"/>
+      <c r="J7" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="37">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I8" s="27"/>
+      <c r="J8" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="37">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I9" s="27"/>
+      <c r="J9" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="37">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I10" s="27"/>
+      <c r="J10" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="37">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I11" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="37">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="27"/>
+      <c r="J12" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="37">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I13" s="27"/>
+      <c r="J13" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="37">
+        <v>0.85399999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I14" s="27"/>
+      <c r="J14" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="37">
+        <v>0.51900000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I15" s="27"/>
+      <c r="J15" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="37">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I16" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="37">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I17" s="27"/>
+      <c r="J17" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="37">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I18" s="27"/>
+      <c r="J18" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="37">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I19" s="27"/>
+      <c r="J19" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="38">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I4:I10"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="I2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52D5B20-8A93-4F89-B53A-4795A1BA7284}">
+  <dimension ref="D6:Y22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="13" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D6" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="O6" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+    </row>
+    <row r="7" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="40"/>
+      <c r="M7" s="41"/>
+      <c r="O7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="W7" s="40"/>
+      <c r="X7" s="41"/>
+    </row>
+    <row r="8" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D8" s="17"/>
+      <c r="E8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="17"/>
+      <c r="P8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="X8" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D9" s="10">
+        <v>2024</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10">
+        <v>2024</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D10" s="11">
+        <v>2026</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="11">
+        <v>2026</v>
+      </c>
+      <c r="P10" s="2">
+        <f>E10-E9</f>
+        <v>2.11</v>
+      </c>
+      <c r="Q10" s="2">
+        <f>F10-F9</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <f>G10-G9</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" ref="S10:U16" si="0">H10-H9</f>
+        <v>2.11</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <f t="shared" ref="V10:V16" si="1">K10-K9</f>
+        <v>2.11</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" ref="W10:W16" si="2">L10-L9</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <f t="shared" ref="X10:X16" si="3">M10-M9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D11" s="11">
+        <v>2029</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3.13</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3.53</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="11">
+        <v>2029</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" ref="P11:P16" si="4">E11-E10</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <f>F11-F10</f>
+        <v>1.34</v>
+      </c>
+      <c r="R11" s="2">
+        <f>G11-G10</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.62999999999999989</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0299999999999998</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D12" s="11">
+        <v>2030</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3.13</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>3.59</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="11">
+        <v>2030</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <f>F12-F11</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="R12" s="2">
+        <f>G12-G11</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="W12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D13" s="11">
+        <v>2031</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3.13</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1.42</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>3.71</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
+        <v>2031</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <f>F13-F12</f>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="R13" s="2">
+        <f>G13-G12</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.42</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D14" s="11">
+        <v>2033</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3.13</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1.47</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>3.71</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1.26</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="11">
+        <v>2033</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="4"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="Q14" s="2">
+        <f>F14-F13</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <f>G14-G13</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <f t="shared" si="2"/>
+        <v>1.26</v>
+      </c>
+      <c r="X14" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D15" s="11">
+        <v>2040</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4.59</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1.47</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>5.14</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1.26</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="11">
+        <v>2040</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="4"/>
+        <v>1.69</v>
+      </c>
+      <c r="Q15" s="2">
+        <f>F15-F14</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <f>G15-G14</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7300000000000004</v>
+      </c>
+      <c r="T15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4299999999999997</v>
+      </c>
+      <c r="W15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D16" s="11">
+        <v>2050</v>
+      </c>
+      <c r="E16" s="3">
+        <v>7.77</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="H16" s="3">
+        <v>8.01</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="K16" s="3">
+        <v>8.23</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1.91</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="O16" s="11">
+        <v>2050</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="4"/>
+        <v>3.1799999999999997</v>
+      </c>
+      <c r="Q16" s="2">
+        <f>F16-F15</f>
+        <v>0.52000000000000024</v>
+      </c>
+      <c r="R16" s="2">
+        <f>G16-G15</f>
+        <v>0.53</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1499999999999995</v>
+      </c>
+      <c r="T16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="V16" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0900000000000007</v>
+      </c>
+      <c r="W16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="X16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="17" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="D17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="O17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="46">
+        <f>SUM(P9:P16)</f>
+        <v>7.379999999999999</v>
+      </c>
+      <c r="Q17" s="46">
+        <f t="shared" ref="Q17:R17" si="5">SUM(Q9:Q16)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R17" s="46">
+        <f t="shared" si="5"/>
+        <v>0.53</v>
+      </c>
+      <c r="S17" s="46">
+        <f t="shared" ref="S17" si="6">SUM(S9:S16)</f>
+        <v>7.62</v>
+      </c>
+      <c r="T17" s="46">
+        <f t="shared" ref="T17" si="7">SUM(T9:T16)</f>
+        <v>2.04</v>
+      </c>
+      <c r="U17" s="46">
+        <f t="shared" ref="U17" si="8">SUM(U9:U16)</f>
+        <v>0.52</v>
+      </c>
+      <c r="V17" s="46">
+        <f t="shared" ref="V17" si="9">SUM(V9:V16)</f>
+        <v>7.8400000000000007</v>
+      </c>
+      <c r="W17" s="46">
+        <f t="shared" ref="W17" si="10">SUM(W9:W16)</f>
+        <v>1.91</v>
+      </c>
+      <c r="X17" s="46">
+        <f t="shared" ref="X17" si="11">SUM(X9:X16)</f>
+        <v>0.52</v>
+      </c>
+      <c r="Y17" s="32"/>
+    </row>
+    <row r="18" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="O18" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18" s="46">
+        <v>26.14</v>
+      </c>
+      <c r="Q18" s="46">
+        <v>21.42</v>
+      </c>
+      <c r="R18" s="46">
+        <v>3.18</v>
+      </c>
+      <c r="S18" s="46">
+        <v>27.07</v>
+      </c>
+      <c r="T18" s="46">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="U18" s="46">
+        <v>3.13</v>
+      </c>
+      <c r="V18" s="46">
+        <v>27.99</v>
+      </c>
+      <c r="W18" s="46">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="X18" s="46">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="19" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="O19" s="45"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+    </row>
+    <row r="22" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="O6:X6"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="H7:J7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD19655-43AB-4897-9A58-C4EA89937BF7}">
+  <dimension ref="B8:V20"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="M8" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+      <c r="M9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="U9" s="40"/>
+      <c r="V9" s="41"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
+      <c r="C10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="17"/>
+      <c r="N10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B11" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>2024</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B12" s="11">
+        <v>2026</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3.01</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
+        <v>2026</v>
+      </c>
+      <c r="N12" s="2">
+        <f>C12-C11</f>
+        <v>2.11</v>
+      </c>
+      <c r="O12" s="2">
+        <f>D12-D11</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <f>E12-E11</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" ref="Q12:V18" si="0">F12-F11</f>
+        <v>2.67</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" si="0"/>
+        <v>4.53</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B13" s="11">
+        <v>2029</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5.59</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>2029</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" ref="N13:N18" si="1">C13-C12</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <f>D13-D12</f>
+        <v>1.34</v>
+      </c>
+      <c r="P13" s="2">
+        <f>E13-E12</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="0"/>
+        <v>2.58</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B14" s="11">
+        <v>2030</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5.59</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>2030</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <f>D14-D13</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="P14" s="2">
+        <f>E14-E13</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B15" s="11">
+        <v>2031</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5.59</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <v>2031</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <f>D15-D14</f>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="P15" s="2">
+        <f>E15-E14</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="V15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B16" s="11">
+        <v>2033</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5.59</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <v>2033</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="O16" s="2">
+        <f>D16-D15</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <f>E16-E15</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="V16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B17" s="11">
+        <v>2040</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4.59</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>6.74</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>2040</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="1"/>
+        <v>1.69</v>
+      </c>
+      <c r="O17" s="2">
+        <f>D17-D16</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <f>E17-E16</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1500000000000004</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.56999999999999851</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19000000000000003</v>
+      </c>
+      <c r="V17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B18" s="11">
+        <v>2050</v>
+      </c>
+      <c r="C18" s="3">
+        <v>7.77</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="F18" s="3">
+        <v>9.65</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.86</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="I18" s="3">
+        <v>11.52</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="M18" s="11">
+        <v>2050</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1799999999999997</v>
+      </c>
+      <c r="O18" s="2">
+        <f>D18-D17</f>
+        <v>0.52000000000000024</v>
+      </c>
+      <c r="P18" s="2">
+        <f>E18-E17</f>
+        <v>0.53</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="0"/>
+        <v>2.91</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.79</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="T18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4800000000000004</v>
+      </c>
+      <c r="U18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.46</v>
+      </c>
+      <c r="V18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="M19" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="N19" s="46">
+        <f>SUM(N11:N18)</f>
+        <v>7.379999999999999</v>
+      </c>
+      <c r="O19" s="46">
+        <f t="shared" ref="O19:V19" si="2">SUM(O11:O18)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P19" s="46">
+        <f t="shared" si="2"/>
+        <v>0.53</v>
+      </c>
+      <c r="Q19" s="46">
+        <f t="shared" si="2"/>
+        <v>9.31</v>
+      </c>
+      <c r="R19" s="46">
+        <f t="shared" si="2"/>
+        <v>1.86</v>
+      </c>
+      <c r="S19" s="46">
+        <f t="shared" si="2"/>
+        <v>0.52</v>
+      </c>
+      <c r="T19" s="46">
+        <f t="shared" si="2"/>
+        <v>10.94</v>
+      </c>
+      <c r="U19" s="46">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="V19" s="46">
+        <f t="shared" si="2"/>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="M20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="N20" s="46">
+        <v>26.14</v>
+      </c>
+      <c r="O20" s="46">
+        <v>21.42</v>
+      </c>
+      <c r="P20" s="46">
+        <v>3.18</v>
+      </c>
+      <c r="Q20" s="46">
+        <v>27.07</v>
+      </c>
+      <c r="R20" s="46">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="S20" s="46">
+        <v>3.13</v>
+      </c>
+      <c r="T20" s="46">
+        <v>27.99</v>
+      </c>
+      <c r="U20" s="46">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="V20" s="46">
+        <v>3.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="M8:V8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1374211-05EA-4D79-AF15-B32197B60AA5}">
+  <dimension ref="B3:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="22"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="47">
+        <v>10211.15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="47">
+        <v>7793.09</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="47">
+        <v>4483.3999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="47">
+        <v>4214.37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="47">
+        <v>4181.7700000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="47">
+        <v>4154.8999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="47">
+        <v>445.36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="47">
+        <v>387.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="47">
+        <v>129.66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="47">
+        <v>99.05</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="47">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="48">
+        <v>26.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Estudio_Sensibilidades/Tablas_CasoBase.xlsx
+++ b/Estudio_Sensibilidades/Tablas_CasoBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignac\Trabajo_Centra\Catedra-LDES\CII-Centra-EDF\SEN\SEN-Files\Electricity Generation\CII-CENTRA-EDF-CHILE\Estudio_Sensibilidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEF79E7-8F05-4BFC-B0EE-7EDD41AD4072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6C8F3C-6EBF-4178-8BCD-5ECF49286BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RL" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,11 @@
     <sheet name="Costos Combustibles" sheetId="5" r:id="rId5"/>
     <sheet name="Psuf" sheetId="6" r:id="rId6"/>
     <sheet name="PSP sensibilidades" sheetId="7" r:id="rId7"/>
-    <sheet name="BESS Masiva sensibilidades" sheetId="13" r:id="rId8"/>
-    <sheet name="Icap 2024" sheetId="10" r:id="rId9"/>
-    <sheet name="C Construcción" sheetId="11" r:id="rId10"/>
-    <sheet name="Costos LDES" sheetId="12" r:id="rId11"/>
+    <sheet name="Ausencia Diesel&amp;GNL" sheetId="14" r:id="rId8"/>
+    <sheet name="BESS Masiva sensibilidades" sheetId="13" r:id="rId9"/>
+    <sheet name="Icap 2024" sheetId="10" r:id="rId10"/>
+    <sheet name="C Construcción" sheetId="11" r:id="rId11"/>
+    <sheet name="Costos LDES" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="135">
   <si>
     <t>Solar_FV</t>
   </si>
@@ -96,9 +97,6 @@
     <t>Evolución de capacidad instalada por tecnología (GW). Escenario: Carbono Neutralidad</t>
   </si>
   <si>
-    <t>Evolución de capacidad instalada por tecnología (GW). Escenario: Transición Acelerada</t>
-  </si>
-  <si>
     <t>CoGen</t>
   </si>
   <si>
@@ -117,16 +115,10 @@
     <t>Capacidad construida de PSP por periodo (GW). Escenario: Carbono Neutralidad</t>
   </si>
   <si>
-    <t>Capacidad construida de PSP por periodo (GW). Escenario: Transición Acelerada</t>
-  </si>
-  <si>
     <t>Capacidad construida de BESS por periodo (GW). Escenario: Recuperación Lenta</t>
   </si>
   <si>
     <t>Capacidad construida de BESS por periodo (GW). Escenario: Carbono Neutralidad</t>
-  </si>
-  <si>
-    <t>Capacidad construida de BESS por periodo (GW). Escenario: Transición Acelerada</t>
   </si>
   <si>
     <t>Escenarios de planificación</t>
@@ -795,6 +787,24 @@
   <si>
     <t>BESS Alto+</t>
   </si>
+  <si>
+    <t>Capacidad instalada de almacenamiento por periodo (GW), Escenario: Transición Acelerada</t>
+  </si>
+  <si>
+    <t>Capacidad construida de almacenamiento por periodo (GW), Escenario: Transición Acelerada</t>
+  </si>
+  <si>
+    <t>Ausencia Diesel&amp;GNL</t>
+  </si>
+  <si>
+    <t>Evolución de capacidad instalada por tecnología (GW), Escenario: Transición Acelerada</t>
+  </si>
+  <si>
+    <t>Capacidad construida de PSP por periodo (GW), Escenario: Transición Acelerada</t>
+  </si>
+  <si>
+    <t>Capacidad construida de BESS por periodo (GW), Escenario: Transición Acelerada</t>
+  </si>
 </sst>
 </file>
 
@@ -802,7 +812,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -911,7 +921,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1064,13 +1074,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1090,24 +1124,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1122,33 +1141,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1157,21 +1189,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1183,23 +1207,30 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1631,36 +1662,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
@@ -1691,13 +1722,13 @@
         <v>5</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>6</v>
@@ -1712,16 +1743,16 @@
         <v>9</v>
       </c>
       <c r="T3" s="12"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
       <c r="Y3" s="12"/>
       <c r="AA3" s="12"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.3">
@@ -2141,53 +2172,53 @@
       <c r="AA11" s="12"/>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="T14" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
+      <c r="T14" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
       <c r="Z14" s="14"/>
-      <c r="AA14" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
+      <c r="AA14" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="T15" s="16" t="s">
+      <c r="T15" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="U15" s="15" t="s">
+      <c r="U15" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="Z15" s="14"/>
-      <c r="AA15" s="16" t="s">
+      <c r="AA15" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AB15" s="15" t="s">
+      <c r="AB15" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="16" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="T16" s="17"/>
+      <c r="T16" s="36"/>
       <c r="U16" s="13">
         <v>8</v>
       </c>
@@ -2200,9 +2231,9 @@
       <c r="X16" s="13">
         <v>24</v>
       </c>
-      <c r="Y16" s="17"/>
+      <c r="Y16" s="36"/>
       <c r="Z16" s="14"/>
-      <c r="AA16" s="17"/>
+      <c r="AA16" s="36"/>
       <c r="AB16" s="13">
         <v>1</v>
       </c>
@@ -2215,7 +2246,7 @@
       <c r="AE16" s="13">
         <v>6</v>
       </c>
-      <c r="AF16" s="17"/>
+      <c r="AF16" s="36"/>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.3">
       <c r="T17" s="10">
@@ -2300,12 +2331,12 @@
       </c>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
       <c r="T19" s="11">
         <v>2029</v>
       </c>
@@ -2348,10 +2379,10 @@
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="12"/>
       <c r="T20" s="11">
         <v>2030</v>
@@ -2575,19 +2606,19 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="Y15:Y16"/>
     <mergeCell ref="AA2:AF2"/>
     <mergeCell ref="AB3:AE3"/>
     <mergeCell ref="T14:Y14"/>
     <mergeCell ref="AA14:AF14"/>
     <mergeCell ref="U15:X15"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="U3:X3"/>
     <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="Y15:Y16"/>
     <mergeCell ref="AA15:AA16"/>
     <mergeCell ref="AF15:AF16"/>
   </mergeCells>
@@ -2600,11 +2631,251 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1374211-05EA-4D79-AF15-B32197B60AA5}">
+  <dimension ref="B2:F18"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="39"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="34"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="30">
+        <v>10211.15</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="30">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="30">
+        <v>7793.09</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="30">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="30">
+        <v>4483.3999999999996</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="30">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="30">
+        <v>4214.37</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="30">
+        <v>4181.7700000000004</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="30">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="30">
+        <v>4154.8999999999996</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="30">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="30">
+        <v>445.36</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="30">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="30">
+        <v>387.5</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="30">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="30">
+        <v>129.66</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="30">
+        <v>99.05</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="30">
+        <v>81</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="31">
+        <v>26.06</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="39"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="D2:D18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485A5195-671C-4717-80D9-4508D5D4E35C}">
   <dimension ref="C5:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="C5" sqref="C5:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2613,112 +2884,112 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="22"/>
+      <c r="C5" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="41"/>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C6" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>83</v>
+      <c r="C6" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="47">
+      <c r="C7" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="30">
         <v>3192</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="47">
+      <c r="C8" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="30">
         <v>20.7</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="47">
+      <c r="C9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="30">
         <v>1869</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="30">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="30">
         <v>316</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="30">
         <v>369</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="30">
         <v>2235</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C15" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="47">
+      <c r="C15" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="47">
+      <c r="C17" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="31">
         <v>0</v>
       </c>
     </row>
@@ -2730,7 +3001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C34864-7081-4F84-BA76-E1C219CA2472}">
   <dimension ref="C5:K27"/>
   <sheetViews>
@@ -2745,352 +3016,388 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="H5" s="49"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="3:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="53" t="s">
+      <c r="C6" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+    </row>
+    <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+    </row>
+    <row r="8" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-    </row>
-    <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-    </row>
-    <row r="8" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="53" t="s">
+      <c r="D8" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+    </row>
+    <row r="9" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+    </row>
+    <row r="10" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="47"/>
+      <c r="D10" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="F10" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="53" t="s">
+      <c r="G10" s="39"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-    </row>
-    <row r="9" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-    </row>
-    <row r="10" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="53"/>
-      <c r="D10" s="54" t="s">
+    </row>
+    <row r="11" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+    </row>
+    <row r="12" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="D12" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="E12" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54" t="s">
+      <c r="F12" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="39"/>
+      <c r="H12" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="J10" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="54" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-    </row>
-    <row r="12" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="55" t="s">
+      <c r="K12" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="I12" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="J12" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="K12" s="51" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="13" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="55"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="50"/>
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="55"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="49"/>
       <c r="I13" s="50"/>
       <c r="J13" s="51"/>
       <c r="K13" s="51"/>
     </row>
     <row r="14" spans="3:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="55"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="51"/>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C17" s="55"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="51"/>
       <c r="E17" s="51"/>
       <c r="F17" s="51"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
     </row>
     <row r="19" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
     </row>
     <row r="20" spans="3:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+    </row>
+    <row r="21" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+    </row>
+    <row r="22" spans="3:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="53" t="s">
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+    </row>
+    <row r="23" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+    </row>
+    <row r="24" spans="3:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="47"/>
+      <c r="D24" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="39"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="J24" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-    </row>
-    <row r="21" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-    </row>
-    <row r="22" spans="3:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="53" t="s">
+      <c r="K24" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-    </row>
-    <row r="23" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-    </row>
-    <row r="24" spans="3:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="53"/>
-      <c r="D24" s="54" t="s">
+    </row>
+    <row r="25" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+    </row>
+    <row r="26" spans="3:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="54" t="s">
+      <c r="D26" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="54" t="s">
+      <c r="E26" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="J24" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="K24" s="54" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="53"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-    </row>
-    <row r="26" spans="3:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="55" t="s">
+      <c r="F26" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="55" t="s">
-        <v>115</v>
+      <c r="G26" s="39"/>
+      <c r="H26" s="49" t="s">
+        <v>112</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J26" s="51" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K26" s="51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="3:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="55"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="55"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="49"/>
       <c r="I27" s="50"/>
       <c r="J27" s="51"/>
       <c r="K27" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:F9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H6:K7"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:K9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="C20:F21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:F23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G6:G27"/>
     <mergeCell ref="H14:K19"/>
@@ -3107,42 +3414,6 @@
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H6:K7"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:K9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H20:K21"/>
-    <mergeCell ref="C20:F21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:F23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="C6:F7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:F9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3165,30 +3436,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
@@ -3219,13 +3490,13 @@
         <v>5</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>6</v>
@@ -3240,10 +3511,10 @@
         <v>9</v>
       </c>
       <c r="T3" s="12"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
       <c r="Y3" s="12"/>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.3">
@@ -3658,53 +3929,53 @@
       <c r="Z13" s="14"/>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="T14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
+      <c r="T14" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
       <c r="Z14" s="14"/>
-      <c r="AA14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
+      <c r="AA14" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="T15" s="16" t="s">
+      <c r="T15" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="U15" s="15" t="s">
+      <c r="U15" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="Z15" s="14"/>
-      <c r="AA15" s="16" t="s">
+      <c r="AA15" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AB15" s="15" t="s">
+      <c r="AB15" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="16" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="T16" s="17"/>
+      <c r="T16" s="36"/>
       <c r="U16" s="13">
         <v>8</v>
       </c>
@@ -3717,9 +3988,9 @@
       <c r="X16" s="13">
         <v>24</v>
       </c>
-      <c r="Y16" s="17"/>
+      <c r="Y16" s="36"/>
       <c r="Z16" s="14"/>
-      <c r="AA16" s="17"/>
+      <c r="AA16" s="36"/>
       <c r="AB16" s="13">
         <v>1</v>
       </c>
@@ -3732,7 +4003,7 @@
       <c r="AE16" s="13">
         <v>6</v>
       </c>
-      <c r="AF16" s="17"/>
+      <c r="AF16" s="36"/>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.3">
       <c r="T17" s="10">
@@ -3776,12 +4047,12 @@
       </c>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
       <c r="T18" s="11">
         <v>2026</v>
       </c>
@@ -3824,10 +4095,10 @@
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="12"/>
       <c r="T19" s="11">
         <v>2029</v>
@@ -4091,6 +4362,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AA14:AF14"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AF15:AF16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="Y15:Y16"/>
     <mergeCell ref="B2:Q2"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="C19:F19"/>
@@ -4098,12 +4375,6 @@
     <mergeCell ref="U3:X3"/>
     <mergeCell ref="T14:Y14"/>
     <mergeCell ref="U15:X15"/>
-    <mergeCell ref="AA14:AF14"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AF15:AF16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="Y15:Y16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -4116,8 +4387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3EFA4E-4C33-487A-A89B-0BABC8B3963F}">
   <dimension ref="B2:AF27"/>
   <sheetViews>
-    <sheetView topLeftCell="O6" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4127,30 +4398,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
+      <c r="B2" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
@@ -4181,13 +4452,13 @@
         <v>5</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>6</v>
@@ -4202,10 +4473,10 @@
         <v>9</v>
       </c>
       <c r="T3" s="12"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
       <c r="Y3" s="12"/>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.3">
@@ -4620,53 +4891,167 @@
       <c r="Z13" s="14"/>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="T14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
+      <c r="B14" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="T14" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
       <c r="Z14" s="14"/>
-      <c r="AA14" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
+      <c r="AA14" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="T15" s="16" t="s">
+      <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="U15" s="15" t="s">
+      <c r="C15" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="U15" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="Z15" s="14"/>
-      <c r="AA15" s="16" t="s">
+      <c r="AA15" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AB15" s="15" t="s">
+      <c r="AB15" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="16" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="T16" s="17"/>
+      <c r="B16" s="11">
+        <v>2024</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7.79</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4.21</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4.18</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="36"/>
       <c r="U16" s="13">
         <v>8</v>
       </c>
@@ -4679,9 +5064,9 @@
       <c r="X16" s="13">
         <v>24</v>
       </c>
-      <c r="Y16" s="17"/>
+      <c r="Y16" s="36"/>
       <c r="Z16" s="14"/>
-      <c r="AA16" s="17"/>
+      <c r="AA16" s="36"/>
       <c r="AB16" s="13">
         <v>1</v>
       </c>
@@ -4694,9 +5079,57 @@
       <c r="AE16" s="13">
         <v>6</v>
       </c>
-      <c r="AF16" s="17"/>
+      <c r="AF16" s="36"/>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B17" s="11">
+        <v>2026</v>
+      </c>
+      <c r="C17" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="D17" s="2">
+        <v>7.81</v>
+      </c>
+      <c r="E17" s="2">
+        <v>7.34</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="G17" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>4.51</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
       <c r="T17" s="10">
         <v>2024</v>
       </c>
@@ -4738,12 +5171,54 @@
       </c>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="B18" s="11">
+        <v>2029</v>
+      </c>
+      <c r="C18" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7.81</v>
+      </c>
+      <c r="E18" s="2">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3.36</v>
+      </c>
+      <c r="G18" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4.51</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="J18" s="2">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
       <c r="T18" s="11">
         <v>2026</v>
       </c>
@@ -4785,12 +5260,54 @@
       </c>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="12"/>
+      <c r="B19" s="11">
+        <v>2030</v>
+      </c>
+      <c r="C19" s="2">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="D19" s="2">
+        <v>7.81</v>
+      </c>
+      <c r="E19" s="2">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="J19" s="2">
+        <v>7.47</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>3.36</v>
+      </c>
       <c r="T19" s="11">
         <v>2029</v>
       </c>
@@ -4832,7 +5349,54 @@
       </c>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
+      <c r="B20" s="11">
+        <v>2031</v>
+      </c>
+      <c r="C20" s="58">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="D20" s="58">
+        <v>7.81</v>
+      </c>
+      <c r="E20" s="58">
+        <v>18.170000000000002</v>
+      </c>
+      <c r="F20" s="58">
+        <v>0</v>
+      </c>
+      <c r="G20" s="58">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="J20" s="2">
+        <v>7.47</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>3.36</v>
+      </c>
       <c r="T20" s="11">
         <v>2030</v>
       </c>
@@ -4874,7 +5438,54 @@
       </c>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
+      <c r="B21" s="11">
+        <v>2033</v>
+      </c>
+      <c r="C21" s="58">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="D21" s="58">
+        <v>7.81</v>
+      </c>
+      <c r="E21" s="58">
+        <v>18.46</v>
+      </c>
+      <c r="F21" s="58">
+        <v>0</v>
+      </c>
+      <c r="G21" s="58">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="J21" s="2">
+        <v>7.47</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>4.32</v>
+      </c>
       <c r="T21" s="11">
         <v>2031</v>
       </c>
@@ -4916,7 +5527,54 @@
       </c>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
+      <c r="B22" s="11">
+        <v>2040</v>
+      </c>
+      <c r="C22" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>7.81</v>
+      </c>
+      <c r="E22" s="2">
+        <v>22.56</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="J22" s="2">
+        <v>9.68</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>4.32</v>
+      </c>
       <c r="T22" s="11">
         <v>2033</v>
       </c>
@@ -4958,7 +5616,54 @@
       </c>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
+      <c r="B23" s="11">
+        <v>2050</v>
+      </c>
+      <c r="C23" s="3">
+        <v>32.29</v>
+      </c>
+      <c r="D23" s="3">
+        <v>7.81</v>
+      </c>
+      <c r="E23" s="3">
+        <v>26.66</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="J23" s="3">
+        <v>11.56</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1.22</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>5.6</v>
+      </c>
       <c r="T23" s="11">
         <v>2040</v>
       </c>
@@ -5043,6 +5748,7 @@
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B25" s="12"/>
+      <c r="F25" s="27"/>
       <c r="Z25" s="14"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.3">
@@ -5052,20 +5758,19 @@
       <c r="B27" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="U15:X15"/>
+  <mergeCells count="12">
     <mergeCell ref="AA14:AF14"/>
     <mergeCell ref="AA15:AA16"/>
     <mergeCell ref="AB15:AE15"/>
     <mergeCell ref="AF15:AF16"/>
     <mergeCell ref="T15:T16"/>
     <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="B14:Q14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -5091,112 +5796,112 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="F4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="8" t="s">
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="C5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="37"/>
+      <c r="C6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="28" t="s">
+      <c r="C7" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="37"/>
+      <c r="C8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
-      <c r="C6" s="29" t="s">
+      <c r="E8" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="37"/>
+      <c r="C9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="25" t="s">
+      <c r="E9" s="20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="27"/>
-      <c r="C8" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27"/>
-      <c r="C9" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>39</v>
+      <c r="F9" s="20" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D15" s="19"/>
+      <c r="D15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5214,7 +5919,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D708813-2F24-4E08-B476-1F13C3C86C73}">
-  <dimension ref="B1:O36"/>
+  <dimension ref="B1:O35"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="L34" sqref="L34"/>
@@ -5223,60 +5928,60 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F1" s="34"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="40"/>
+      <c r="C3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="21" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="21"/>
-      <c r="C3" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="31">
+      <c r="B4" s="24">
         <v>2024</v>
       </c>
       <c r="C4" s="1">
@@ -5288,8 +5993,8 @@
       <c r="E4" s="1">
         <v>266.23</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="31">
+      <c r="F4" s="39"/>
+      <c r="G4" s="24">
         <v>2024</v>
       </c>
       <c r="H4" s="1">
@@ -5301,13 +6006,9 @@
       <c r="J4" s="1">
         <v>83.62</v>
       </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="31">
+      <c r="B5" s="24">
         <v>2026</v>
       </c>
       <c r="C5" s="2">
@@ -5319,8 +6020,8 @@
       <c r="E5" s="2">
         <v>282.99</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="31">
+      <c r="F5" s="39"/>
+      <c r="G5" s="24">
         <v>2026</v>
       </c>
       <c r="H5" s="2">
@@ -5332,13 +6033,9 @@
       <c r="J5" s="2">
         <v>87.76</v>
       </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="31">
+      <c r="B6" s="24">
         <v>2029</v>
       </c>
       <c r="C6" s="2">
@@ -5350,8 +6047,8 @@
       <c r="E6" s="2">
         <v>295.49</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="31">
+      <c r="F6" s="39"/>
+      <c r="G6" s="24">
         <v>2029</v>
       </c>
       <c r="H6" s="2">
@@ -5363,13 +6060,9 @@
       <c r="J6" s="2">
         <v>91.21</v>
       </c>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="31">
+      <c r="B7" s="24">
         <v>2030</v>
       </c>
       <c r="C7" s="2">
@@ -5381,8 +6074,8 @@
       <c r="E7" s="2">
         <v>302.12</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="31">
+      <c r="F7" s="39"/>
+      <c r="G7" s="24">
         <v>2030</v>
       </c>
       <c r="H7" s="2">
@@ -5394,13 +6087,9 @@
       <c r="J7" s="2">
         <v>92.9</v>
       </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="31">
+      <c r="B8" s="24">
         <v>2031</v>
       </c>
       <c r="C8" s="2">
@@ -5412,8 +6101,8 @@
       <c r="E8" s="2">
         <v>307.08</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="31">
+      <c r="F8" s="39"/>
+      <c r="G8" s="24">
         <v>2031</v>
       </c>
       <c r="H8" s="2">
@@ -5425,13 +6114,9 @@
       <c r="J8" s="2">
         <v>94.11</v>
       </c>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="31">
+      <c r="B9" s="24">
         <v>2033</v>
       </c>
       <c r="C9" s="2">
@@ -5443,8 +6128,8 @@
       <c r="E9" s="2">
         <v>317.25</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="31">
+      <c r="F9" s="39"/>
+      <c r="G9" s="24">
         <v>2033</v>
       </c>
       <c r="H9" s="2">
@@ -5456,13 +6141,9 @@
       <c r="J9" s="2">
         <v>96.74</v>
       </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="31">
+      <c r="B10" s="24">
         <v>2040</v>
       </c>
       <c r="C10" s="2">
@@ -5474,8 +6155,8 @@
       <c r="E10" s="2">
         <v>347</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="31">
+      <c r="F10" s="39"/>
+      <c r="G10" s="24">
         <v>2040</v>
       </c>
       <c r="H10" s="2">
@@ -5487,13 +6168,9 @@
       <c r="J10" s="2">
         <v>103.93</v>
       </c>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="31">
+      <c r="B11" s="24">
         <v>2050</v>
       </c>
       <c r="C11" s="3">
@@ -5505,8 +6182,8 @@
       <c r="E11" s="3">
         <v>368.16</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="31">
+      <c r="F11" s="39"/>
+      <c r="G11" s="24">
         <v>2050</v>
       </c>
       <c r="H11" s="3">
@@ -5518,77 +6195,65 @@
       <c r="J11" s="3">
         <v>108.96</v>
       </c>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F12" s="34"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F13" s="34"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="40"/>
+      <c r="C15" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="21" t="s">
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
-      <c r="C15" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="31">
+      <c r="B16" s="24">
         <v>2024</v>
       </c>
       <c r="C16" s="1">
@@ -5600,8 +6265,8 @@
       <c r="E16" s="1">
         <v>190.04</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="31">
+      <c r="F16" s="39"/>
+      <c r="G16" s="24">
         <v>2024</v>
       </c>
       <c r="H16" s="1">
@@ -5613,13 +6278,9 @@
       <c r="J16" s="1">
         <v>577.91</v>
       </c>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="31">
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="24">
         <v>2026</v>
       </c>
       <c r="C17" s="2">
@@ -5631,8 +6292,8 @@
       <c r="E17" s="2">
         <v>196.39</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="31">
+      <c r="F17" s="39"/>
+      <c r="G17" s="24">
         <v>2026</v>
       </c>
       <c r="H17" s="2">
@@ -5644,13 +6305,9 @@
       <c r="J17" s="2">
         <v>613.63</v>
       </c>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="31">
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="24">
         <v>2029</v>
       </c>
       <c r="C18" s="2">
@@ -5662,8 +6319,8 @@
       <c r="E18" s="2">
         <v>203.97</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="31">
+      <c r="F18" s="39"/>
+      <c r="G18" s="24">
         <v>2029</v>
       </c>
       <c r="H18" s="2">
@@ -5675,13 +6332,9 @@
       <c r="J18" s="2">
         <v>640.67999999999995</v>
       </c>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="31">
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="24">
         <v>2030</v>
       </c>
       <c r="C19" s="2">
@@ -5693,8 +6346,8 @@
       <c r="E19" s="2">
         <v>206.95</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="31">
+      <c r="F19" s="39"/>
+      <c r="G19" s="24">
         <v>2030</v>
       </c>
       <c r="H19" s="2">
@@ -5706,13 +6359,9 @@
       <c r="J19" s="2">
         <v>654.79</v>
       </c>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="31">
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="24">
         <v>2031</v>
       </c>
       <c r="C20" s="2">
@@ -5724,8 +6373,8 @@
       <c r="E20" s="2">
         <v>208.7</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="31">
+      <c r="F20" s="39"/>
+      <c r="G20" s="24">
         <v>2031</v>
       </c>
       <c r="H20" s="2">
@@ -5737,13 +6386,9 @@
       <c r="J20" s="2">
         <v>665.22</v>
       </c>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="31">
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="24">
         <v>2033</v>
       </c>
       <c r="C21" s="2">
@@ -5755,8 +6400,8 @@
       <c r="E21" s="2">
         <v>213.5</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="31">
+      <c r="F21" s="39"/>
+      <c r="G21" s="24">
         <v>2033</v>
       </c>
       <c r="H21" s="2">
@@ -5768,13 +6413,9 @@
       <c r="J21" s="2">
         <v>686.86</v>
       </c>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="31">
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="24">
         <v>2040</v>
       </c>
       <c r="C22" s="2">
@@ -5786,8 +6427,8 @@
       <c r="E22" s="2">
         <v>223.56</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="31">
+      <c r="F22" s="39"/>
+      <c r="G22" s="24">
         <v>2040</v>
       </c>
       <c r="H22" s="2">
@@ -5799,13 +6440,9 @@
       <c r="J22" s="2">
         <v>749.41</v>
       </c>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="31">
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="24">
         <v>2050</v>
       </c>
       <c r="C23" s="3">
@@ -5817,8 +6454,8 @@
       <c r="E23" s="3">
         <v>230.13</v>
       </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="31">
+      <c r="F23" s="39"/>
+      <c r="G23" s="24">
         <v>2050</v>
       </c>
       <c r="H23" s="3">
@@ -5830,58 +6467,54 @@
       <c r="J23" s="3">
         <v>794.1</v>
       </c>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F24" s="34"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F24" s="39"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="40"/>
+      <c r="C26" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="21" t="s">
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="21"/>
-      <c r="C26" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="31">
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="24">
         <v>2024</v>
       </c>
       <c r="C27" s="1">
@@ -5893,8 +6526,8 @@
       <c r="E27" s="1">
         <v>76.7</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="31">
+      <c r="F27" s="39"/>
+      <c r="G27" s="24">
         <v>2024</v>
       </c>
       <c r="H27" s="1">
@@ -5907,8 +6540,8 @@
         <v>295.52999999999997</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="31">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="24">
         <v>2026</v>
       </c>
       <c r="C28" s="2">
@@ -5920,8 +6553,8 @@
       <c r="E28" s="2">
         <v>74.599999999999994</v>
       </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="31">
+      <c r="F28" s="39"/>
+      <c r="G28" s="24">
         <v>2026</v>
       </c>
       <c r="H28" s="2">
@@ -5934,8 +6567,8 @@
         <v>298</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="31">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="24">
         <v>2029</v>
       </c>
       <c r="C29" s="2">
@@ -5947,8 +6580,8 @@
       <c r="E29" s="2">
         <v>72.5</v>
       </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="31">
+      <c r="F29" s="39"/>
+      <c r="G29" s="24">
         <v>2029</v>
       </c>
       <c r="H29" s="2">
@@ -5961,8 +6594,8 @@
         <v>308.52999999999997</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="31">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="24">
         <v>2030</v>
       </c>
       <c r="C30" s="2">
@@ -5974,8 +6607,8 @@
       <c r="E30" s="2">
         <v>72.69</v>
       </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="31">
+      <c r="F30" s="39"/>
+      <c r="G30" s="24">
         <v>2030</v>
       </c>
       <c r="H30" s="2">
@@ -5988,8 +6621,8 @@
         <v>310.95999999999998</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="31">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="24">
         <v>2031</v>
       </c>
       <c r="C31" s="2">
@@ -6001,8 +6634,8 @@
       <c r="E31" s="2">
         <v>73.3</v>
       </c>
-      <c r="F31" s="34"/>
-      <c r="G31" s="31">
+      <c r="F31" s="39"/>
+      <c r="G31" s="24">
         <v>2031</v>
       </c>
       <c r="H31" s="2">
@@ -6015,8 +6648,8 @@
         <v>311.29000000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="31">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="24">
         <v>2033</v>
       </c>
       <c r="C32" s="2">
@@ -6028,8 +6661,8 @@
       <c r="E32" s="2">
         <v>73.37</v>
       </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="31">
+      <c r="F32" s="39"/>
+      <c r="G32" s="24">
         <v>2033</v>
       </c>
       <c r="H32" s="2">
@@ -6043,7 +6676,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="31">
+      <c r="B33" s="24">
         <v>2040</v>
       </c>
       <c r="C33" s="2">
@@ -6055,8 +6688,8 @@
       <c r="E33" s="2">
         <v>75.099999999999994</v>
       </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="31">
+      <c r="F33" s="39"/>
+      <c r="G33" s="24">
         <v>2040</v>
       </c>
       <c r="H33" s="2">
@@ -6070,7 +6703,7 @@
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="31">
+      <c r="B34" s="24">
         <v>2050</v>
       </c>
       <c r="C34" s="3">
@@ -6082,8 +6715,8 @@
       <c r="E34" s="3">
         <v>80</v>
       </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="31">
+      <c r="F34" s="39"/>
+      <c r="G34" s="24">
         <v>2050</v>
       </c>
       <c r="H34" s="3">
@@ -6097,13 +6730,11 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="F35" s="34"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="F36" s="36"/>
+      <c r="F35" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H14:J14"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="L14:L15"/>
@@ -6120,7 +6751,6 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6140,171 +6770,171 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I2" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="I2" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="19"/>
+      <c r="B3" s="15"/>
       <c r="I3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I4" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="25">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I5" s="37"/>
+      <c r="J5" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K5" s="25">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I6" s="37"/>
+      <c r="J6" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="25">
+        <v>0.66600000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I7" s="37"/>
+      <c r="J7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I4" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="31" t="s">
+      <c r="K7" s="25">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I8" s="37"/>
+      <c r="J8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="25">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I9" s="37"/>
+      <c r="J9" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="25">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I10" s="37"/>
+      <c r="J10" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="25">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I11" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="25">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="37"/>
+      <c r="J12" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="25">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I13" s="37"/>
+      <c r="J13" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="37">
-        <v>0.56399999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I5" s="27"/>
-      <c r="J5" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="37">
-        <v>0.23799999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I6" s="27"/>
-      <c r="J6" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="37">
-        <v>0.66600000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I7" s="27"/>
-      <c r="J7" s="31" t="s">
+      <c r="K13" s="25">
+        <v>0.85399999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I14" s="37"/>
+      <c r="J14" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="25">
+        <v>0.51900000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I15" s="37"/>
+      <c r="J15" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="37">
-        <v>0.57899999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I8" s="27"/>
-      <c r="J8" s="31" t="s">
+      <c r="K15" s="25">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I16" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="37">
-        <v>0.16800000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I9" s="27"/>
-      <c r="J9" s="31" t="s">
+      <c r="K16" s="25">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I17" s="37"/>
+      <c r="J17" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="37">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I10" s="27"/>
-      <c r="J10" s="31" t="s">
+      <c r="K17" s="25">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I18" s="37"/>
+      <c r="J18" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="37">
-        <v>0.64300000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I11" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="37">
-        <v>0.48799999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I12" s="27"/>
-      <c r="J12" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="37">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I13" s="27"/>
-      <c r="J13" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" s="37">
-        <v>0.85399999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I14" s="27"/>
-      <c r="J14" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="37">
-        <v>0.51900000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="27"/>
-      <c r="J15" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15" s="37">
-        <v>0.751</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I16" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="31" t="s">
+      <c r="K18" s="25">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I19" s="37"/>
+      <c r="J19" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="K16" s="37">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I17" s="27"/>
-      <c r="J17" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="K17" s="37">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I18" s="27"/>
-      <c r="J18" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" s="37">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I19" s="27"/>
-      <c r="J19" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="38">
+      <c r="K19" s="26">
         <v>1</v>
       </c>
     </row>
@@ -6322,10 +6952,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52D5B20-8A93-4F89-B53A-4795A1BA7284}">
-  <dimension ref="D6:Y22"/>
+  <dimension ref="D6:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6335,71 +6965,71 @@
   </cols>
   <sheetData>
     <row r="6" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D6" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="O6" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
+      <c r="D6" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="O6" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
     </row>
     <row r="7" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="41"/>
-      <c r="O7" s="16" t="s">
+      <c r="E7" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
+      <c r="O7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="W7" s="40"/>
-      <c r="X7" s="41"/>
+      <c r="P7" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="W7" s="42"/>
+      <c r="X7" s="43"/>
     </row>
     <row r="8" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D8" s="17"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="13" t="s">
         <v>5</v>
       </c>
@@ -6427,7 +7057,7 @@
       <c r="M8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="17"/>
+      <c r="O8" s="36"/>
       <c r="P8" s="13" t="s">
         <v>5</v>
       </c>
@@ -6628,11 +7258,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <f>F11-F10</f>
+        <f t="shared" ref="Q11:R16" si="5">F11-F10</f>
         <v>1.34</v>
       </c>
       <c r="R11" s="2">
-        <f>G11-G10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S11" s="2">
@@ -6699,11 +7329,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <f>F12-F11</f>
+        <f t="shared" si="5"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="R12" s="2">
-        <f>G12-G11</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S12" s="2">
@@ -6770,11 +7400,11 @@
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <f>F13-F12</f>
+        <f t="shared" si="5"/>
         <v>0.18999999999999995</v>
       </c>
       <c r="R13" s="2">
-        <f>G13-G12</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S13" s="2">
@@ -6841,11 +7471,11 @@
         <v>0.39999999999999991</v>
       </c>
       <c r="Q14" s="2">
-        <f>F14-F13</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R14" s="2">
-        <f>G14-G13</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S14" s="2">
@@ -6912,11 +7542,11 @@
         <v>1.69</v>
       </c>
       <c r="Q15" s="2">
-        <f>F15-F14</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R15" s="2">
-        <f>G15-G14</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S15" s="2">
@@ -6983,11 +7613,11 @@
         <v>3.1799999999999997</v>
       </c>
       <c r="Q16" s="2">
-        <f>F16-F15</f>
+        <f t="shared" si="5"/>
         <v>0.52000000000000024</v>
       </c>
       <c r="R16" s="2">
-        <f>G16-G15</f>
+        <f t="shared" si="5"/>
         <v>0.53</v>
       </c>
       <c r="S16" s="2">
@@ -7016,111 +7646,93 @@
       </c>
     </row>
     <row r="17" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D17" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="D17" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
       <c r="O17" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="P17" s="46">
+        <v>86</v>
+      </c>
+      <c r="P17" s="29">
         <f>SUM(P9:P16)</f>
         <v>7.379999999999999</v>
       </c>
-      <c r="Q17" s="46">
-        <f t="shared" ref="Q17:R17" si="5">SUM(Q9:Q16)</f>
+      <c r="Q17" s="29">
+        <f t="shared" ref="Q17:R17" si="6">SUM(Q9:Q16)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="R17" s="46">
-        <f t="shared" si="5"/>
+      <c r="R17" s="29">
+        <f t="shared" si="6"/>
         <v>0.53</v>
       </c>
-      <c r="S17" s="46">
-        <f t="shared" ref="S17" si="6">SUM(S9:S16)</f>
+      <c r="S17" s="29">
+        <f t="shared" ref="S17" si="7">SUM(S9:S16)</f>
         <v>7.62</v>
       </c>
-      <c r="T17" s="46">
-        <f t="shared" ref="T17" si="7">SUM(T9:T16)</f>
+      <c r="T17" s="29">
+        <f t="shared" ref="T17" si="8">SUM(T9:T16)</f>
         <v>2.04</v>
       </c>
-      <c r="U17" s="46">
-        <f t="shared" ref="U17" si="8">SUM(U9:U16)</f>
+      <c r="U17" s="29">
+        <f t="shared" ref="U17" si="9">SUM(U9:U16)</f>
         <v>0.52</v>
       </c>
-      <c r="V17" s="46">
-        <f t="shared" ref="V17" si="9">SUM(V9:V16)</f>
+      <c r="V17" s="29">
+        <f t="shared" ref="V17" si="10">SUM(V9:V16)</f>
         <v>7.8400000000000007</v>
       </c>
-      <c r="W17" s="46">
-        <f t="shared" ref="W17" si="10">SUM(W9:W16)</f>
+      <c r="W17" s="29">
+        <f t="shared" ref="W17" si="11">SUM(W9:W16)</f>
         <v>1.91</v>
       </c>
-      <c r="X17" s="46">
-        <f t="shared" ref="X17" si="11">SUM(X9:X16)</f>
+      <c r="X17" s="29">
+        <f t="shared" ref="X17" si="12">SUM(X9:X16)</f>
         <v>0.52</v>
       </c>
-      <c r="Y17" s="32"/>
+      <c r="Y17" s="2"/>
     </row>
     <row r="18" spans="4:25" x14ac:dyDescent="0.3">
       <c r="O18" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="P18" s="46">
+        <v>87</v>
+      </c>
+      <c r="P18" s="29">
         <v>26.14</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18" s="29">
         <v>21.42</v>
       </c>
-      <c r="R18" s="46">
+      <c r="R18" s="29">
         <v>3.18</v>
       </c>
-      <c r="S18" s="46">
+      <c r="S18" s="29">
         <v>27.07</v>
       </c>
-      <c r="T18" s="46">
+      <c r="T18" s="29">
         <v>20.350000000000001</v>
       </c>
-      <c r="U18" s="46">
+      <c r="U18" s="29">
         <v>3.13</v>
       </c>
-      <c r="V18" s="46">
+      <c r="V18" s="29">
         <v>27.99</v>
       </c>
-      <c r="W18" s="46">
+      <c r="W18" s="29">
         <v>19.059999999999999</v>
       </c>
-      <c r="X18" s="46">
+      <c r="X18" s="29">
         <v>3.12</v>
       </c>
     </row>
     <row r="19" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="O19" s="45"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-    </row>
-    <row r="22" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
+      <c r="O19" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -7140,81 +7752,649 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209C892E-A5C7-4C79-9DED-40AE8FCCDA2A}">
+  <dimension ref="B8:P20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="J8" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56"/>
+      <c r="J9" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="36"/>
+      <c r="C10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="11">
+        <v>2026</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.63</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <v>2026</v>
+      </c>
+      <c r="K12" s="2">
+        <f>C12-C11</f>
+        <v>2.2399999999999998</v>
+      </c>
+      <c r="L12" s="2">
+        <f>D12-D11</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <f>E12-E11</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <f>F12-F11</f>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="O12" s="2">
+        <f>G12-G11</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <f>H12-H11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="11">
+        <v>2029</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3.64</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>2029</v>
+      </c>
+      <c r="K13" s="2">
+        <f>C13-C12</f>
+        <v>1.0100000000000002</v>
+      </c>
+      <c r="L13" s="2">
+        <f>D13-D12</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <f>E13-E12</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <f>F13-F12</f>
+        <v>1.3699999999999997</v>
+      </c>
+      <c r="O13" s="2">
+        <f>G13-G12</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <f>H13-H12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="11">
+        <v>2030</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3.64</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>7.47</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3.36</v>
+      </c>
+      <c r="J14" s="11">
+        <v>2030</v>
+      </c>
+      <c r="K14" s="2">
+        <f>C14-C13</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <f>D14-D13</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <f>E14-E13</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <f>F14-F13</f>
+        <v>3.45</v>
+      </c>
+      <c r="O14" s="2">
+        <f>G14-G13</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <f>H14-H13</f>
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="11">
+        <v>2031</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.64</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>7.47</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3.36</v>
+      </c>
+      <c r="J15" s="11">
+        <v>2031</v>
+      </c>
+      <c r="K15" s="2">
+        <f>C15-C14</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <f>D15-D14</f>
+        <v>1.46</v>
+      </c>
+      <c r="M15" s="2">
+        <f>E15-E14</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <f>F15-F14</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <f>G15-G14</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <f>H15-H14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="11">
+        <v>2033</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3.69</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>7.47</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4.32</v>
+      </c>
+      <c r="J16" s="11">
+        <v>2033</v>
+      </c>
+      <c r="K16" s="2">
+        <f>C16-C15</f>
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="L16" s="2">
+        <f>D16-D15</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <f>E16-E15</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <f>F16-F15</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <f>G16-G15</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <f>H16-H15</f>
+        <v>0.96000000000000041</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="11">
+        <v>2040</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>9.68</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>4.32</v>
+      </c>
+      <c r="J17" s="11">
+        <v>2040</v>
+      </c>
+      <c r="K17" s="2">
+        <f>C17-C16</f>
+        <v>1.1599999999999997</v>
+      </c>
+      <c r="L17" s="2">
+        <f>D17-D16</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <f>E17-E16</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <f>F17-F16</f>
+        <v>2.21</v>
+      </c>
+      <c r="O17" s="2">
+        <f>G17-G16</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <f>H17-H16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="11">
+        <v>2050</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.46</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="F18" s="3">
+        <v>11.56</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.22</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="J18" s="11">
+        <v>2050</v>
+      </c>
+      <c r="K18" s="2">
+        <f>C18-C17</f>
+        <v>5.17</v>
+      </c>
+      <c r="L18" s="2">
+        <f>D18-D17</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <f>E18-E17</f>
+        <v>0.63</v>
+      </c>
+      <c r="N18" s="2">
+        <f>F18-F17</f>
+        <v>1.8800000000000008</v>
+      </c>
+      <c r="O18" s="2">
+        <f>G18-G17</f>
+        <v>1.22</v>
+      </c>
+      <c r="P18" s="2">
+        <f>H18-H17</f>
+        <v>1.2799999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="J19" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="29">
+        <f>SUM(K11:K18)</f>
+        <v>9.629999999999999</v>
+      </c>
+      <c r="L19" s="29">
+        <f t="shared" ref="L19:P19" si="0">SUM(L11:L18)</f>
+        <v>1.46</v>
+      </c>
+      <c r="M19" s="29">
+        <f t="shared" si="0"/>
+        <v>0.63</v>
+      </c>
+      <c r="N19" s="29">
+        <f t="shared" si="0"/>
+        <v>11.17</v>
+      </c>
+      <c r="O19" s="29">
+        <f t="shared" si="0"/>
+        <v>1.22</v>
+      </c>
+      <c r="P19" s="29">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J20" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="29">
+        <v>26.14</v>
+      </c>
+      <c r="L20" s="29">
+        <v>21.42</v>
+      </c>
+      <c r="M20" s="29">
+        <v>3.18</v>
+      </c>
+      <c r="N20" s="29">
+        <v>27.07</v>
+      </c>
+      <c r="O20" s="29">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="P20" s="29">
+        <v>3.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD19655-43AB-4897-9A58-C4EA89937BF7}">
   <dimension ref="B8:V20"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="M8" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
+      <c r="B8" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="M8" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="M9" s="16" t="s">
+      <c r="C9" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="M9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="U9" s="40"/>
-      <c r="V9" s="41"/>
+      <c r="N9" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="U9" s="42"/>
+      <c r="V9" s="43"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="13" t="s">
         <v>5</v>
       </c>
@@ -7242,7 +8422,7 @@
       <c r="K10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="17"/>
+      <c r="M10" s="36"/>
       <c r="N10" s="13" t="s">
         <v>5</v>
       </c>
@@ -7409,10 +8589,10 @@
         <v>2029</v>
       </c>
       <c r="C13" s="2">
-        <v>2.5</v>
+        <v>3.13</v>
       </c>
       <c r="D13" s="2">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -7440,14 +8620,14 @@
       </c>
       <c r="N13" s="2">
         <f t="shared" ref="N13:N18" si="1">C13-C12</f>
-        <v>0</v>
+        <v>0.62999999999999989</v>
       </c>
       <c r="O13" s="2">
-        <f>D13-D12</f>
-        <v>1.34</v>
+        <f t="shared" ref="O13:P18" si="2">D13-D12</f>
+        <v>0</v>
       </c>
       <c r="P13" s="2">
-        <f>E13-E12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q13" s="2">
@@ -7480,10 +8660,10 @@
         <v>2030</v>
       </c>
       <c r="C14" s="2">
-        <v>2.5</v>
+        <v>3.13</v>
       </c>
       <c r="D14" s="2">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -7514,11 +8694,11 @@
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <f>D14-D13</f>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P14" s="2">
-        <f>E14-E13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q14" s="2">
@@ -7551,10 +8731,10 @@
         <v>2031</v>
       </c>
       <c r="C15" s="2">
-        <v>2.5</v>
+        <v>3.13</v>
       </c>
       <c r="D15" s="2">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -7585,11 +8765,11 @@
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <f>D15-D14</f>
-        <v>0.18999999999999995</v>
+        <f t="shared" si="2"/>
+        <v>1.42</v>
       </c>
       <c r="P15" s="2">
-        <f>E15-E14</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q15" s="2">
@@ -7622,10 +8802,10 @@
         <v>2033</v>
       </c>
       <c r="C16" s="2">
-        <v>2.9</v>
+        <v>3.13</v>
       </c>
       <c r="D16" s="2">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -7653,14 +8833,14 @@
       </c>
       <c r="N16" s="2">
         <f t="shared" si="1"/>
-        <v>0.39999999999999991</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
-        <f>D16-D15</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="P16" s="2">
-        <f>E16-E15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q16" s="2">
@@ -7693,10 +8873,10 @@
         <v>2040</v>
       </c>
       <c r="C17" s="2">
-        <v>4.59</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="D17" s="2">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -7724,14 +8904,14 @@
       </c>
       <c r="N17" s="2">
         <f t="shared" si="1"/>
-        <v>1.69</v>
+        <v>1.7300000000000004</v>
       </c>
       <c r="O17" s="2">
-        <f>D17-D16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <f>E17-E16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q17" s="2">
@@ -7764,13 +8944,13 @@
         <v>2050</v>
       </c>
       <c r="C18" s="3">
-        <v>7.77</v>
+        <v>8.01</v>
       </c>
       <c r="D18" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.04</v>
       </c>
       <c r="E18" s="3">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="F18" s="3">
         <v>9.65</v>
@@ -7795,15 +8975,15 @@
       </c>
       <c r="N18" s="2">
         <f t="shared" si="1"/>
-        <v>3.1799999999999997</v>
+        <v>3.1499999999999995</v>
       </c>
       <c r="O18" s="2">
-        <f>D18-D17</f>
-        <v>0.52000000000000024</v>
+        <f t="shared" si="2"/>
+        <v>0.57000000000000006</v>
       </c>
       <c r="P18" s="2">
-        <f>E18-E17</f>
-        <v>0.53</v>
+        <f t="shared" si="2"/>
+        <v>0.52</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="0"/>
@@ -7831,87 +9011,87 @@
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B19" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
+      <c r="B19" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
       <c r="M19" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="N19" s="46">
+        <v>86</v>
+      </c>
+      <c r="N19" s="29">
         <f>SUM(N11:N18)</f>
-        <v>7.379999999999999</v>
-      </c>
-      <c r="O19" s="46">
-        <f t="shared" ref="O19:V19" si="2">SUM(O11:O18)</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="P19" s="46">
-        <f t="shared" si="2"/>
-        <v>0.53</v>
-      </c>
-      <c r="Q19" s="46">
-        <f t="shared" si="2"/>
+        <v>7.62</v>
+      </c>
+      <c r="O19" s="29">
+        <f t="shared" ref="O19:V19" si="3">SUM(O11:O18)</f>
+        <v>2.04</v>
+      </c>
+      <c r="P19" s="29">
+        <f t="shared" si="3"/>
+        <v>0.52</v>
+      </c>
+      <c r="Q19" s="29">
+        <f t="shared" si="3"/>
         <v>9.31</v>
       </c>
-      <c r="R19" s="46">
-        <f t="shared" si="2"/>
+      <c r="R19" s="29">
+        <f t="shared" si="3"/>
         <v>1.86</v>
       </c>
-      <c r="S19" s="46">
-        <f t="shared" si="2"/>
+      <c r="S19" s="29">
+        <f t="shared" si="3"/>
         <v>0.52</v>
       </c>
-      <c r="T19" s="46">
-        <f t="shared" si="2"/>
+      <c r="T19" s="29">
+        <f t="shared" si="3"/>
         <v>10.94</v>
       </c>
-      <c r="U19" s="46">
-        <f t="shared" si="2"/>
+      <c r="U19" s="29">
+        <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
-      <c r="V19" s="46">
-        <f t="shared" si="2"/>
+      <c r="V19" s="29">
+        <f t="shared" si="3"/>
         <v>0.53</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="M20" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="N20" s="46">
+        <v>87</v>
+      </c>
+      <c r="N20" s="29">
         <v>26.14</v>
       </c>
-      <c r="O20" s="46">
+      <c r="O20" s="29">
         <v>21.42</v>
       </c>
-      <c r="P20" s="46">
+      <c r="P20" s="29">
         <v>3.18</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20" s="29">
         <v>27.07</v>
       </c>
-      <c r="R20" s="46">
+      <c r="R20" s="29">
         <v>20.350000000000001</v>
       </c>
-      <c r="S20" s="46">
+      <c r="S20" s="29">
         <v>3.13</v>
       </c>
-      <c r="T20" s="46">
+      <c r="T20" s="29">
         <v>27.99</v>
       </c>
-      <c r="U20" s="46">
+      <c r="U20" s="29">
         <v>19.059999999999999</v>
       </c>
-      <c r="V20" s="46">
+      <c r="V20" s="29">
         <v>3.12</v>
       </c>
     </row>
@@ -7930,135 +9110,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1374211-05EA-4D79-AF15-B32197B60AA5}">
-  <dimension ref="B3:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="22"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="47">
-        <v>10211.15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="47">
-        <v>7793.09</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="47">
-        <v>4483.3999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="47">
-        <v>4214.37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="47">
-        <v>4181.7700000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="47">
-        <v>4154.8999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="47">
-        <v>445.36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="47">
-        <v>387.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="47">
-        <v>129.66</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="47">
-        <v>99.05</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="47">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="48">
-        <v>26.06</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:C3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>